--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B96E774-358E-4B32-BF71-0523D6FC399C}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E324DA56-F1F7-47F8-8A8A-5C64FF955829}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="93">
   <si>
     <t>Fosen</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>navn-2008-2019</t>
-  </si>
-  <si>
-    <t>Aure</t>
   </si>
   <si>
     <t>Værnesregionen</t>
@@ -817,14 +814,14 @@
       <selection sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +845,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,7 +874,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -921,7 +918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -957,7 +954,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -987,7 +984,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1020,13 +1017,13 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="16"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1064,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1221,12 +1218,12 @@
       <selection activeCell="C166" sqref="C166:C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1303,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1314,7 +1311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1325,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1336,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1369,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1534,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1545,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1556,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1567,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1600,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1655,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1677,9 +1674,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -1688,9 +1685,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -1699,9 +1696,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -1710,9 +1707,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -1721,9 +1718,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -1732,9 +1729,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1743,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1798,7 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1809,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1820,7 +1817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -1842,7 +1839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -1853,7 +1850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -1875,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -1886,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1897,7 +1894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -1908,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -1919,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1985,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -2029,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -2084,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -2117,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -2128,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -2150,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>56</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>56</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>56</v>
       </c>
@@ -2183,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>56</v>
       </c>
@@ -2194,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -2205,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -2216,7 +2213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -2249,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>56</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -2304,7 +2301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -2315,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +2356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>46</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -2403,7 +2400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>46</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -2436,7 +2433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>46</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -2469,7 +2466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>46</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>46</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>46</v>
       </c>
@@ -2557,7 +2554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>46</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>46</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>46</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>46</v>
       </c>
@@ -2612,7 +2609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -2667,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -2678,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>79</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -2700,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -2711,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -2744,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>79</v>
       </c>
@@ -2766,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -2777,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>79</v>
       </c>
@@ -2799,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>79</v>
       </c>
@@ -2821,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>79</v>
       </c>
@@ -2832,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>79</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>79</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -2876,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>79</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>79</v>
       </c>
@@ -2898,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>79</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>79</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -2942,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>79</v>
       </c>
@@ -2964,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>79</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>79</v>
       </c>
@@ -2997,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>79</v>
       </c>
@@ -3008,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>83</v>
       </c>
@@ -3052,7 +3049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>83</v>
       </c>
@@ -3063,7 +3060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>83</v>
       </c>
@@ -3074,7 +3071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>83</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>83</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>83</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>83</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>83</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>83</v>
       </c>
@@ -3140,7 +3137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>83</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>83</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>83</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>83</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>83</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>83</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>83</v>
       </c>
@@ -3217,7 +3214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -3228,7 +3225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>83</v>
       </c>
@@ -3239,7 +3236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>83</v>
       </c>
@@ -3250,7 +3247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>83</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>83</v>
       </c>
@@ -3272,7 +3269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>83</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>83</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>83</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>83</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>83</v>
       </c>
@@ -3327,7 +3324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>83</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>83</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>83</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -3371,7 +3368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>83</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>83</v>
       </c>
@@ -3404,7 +3401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>83</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>83</v>
       </c>
@@ -3426,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>83</v>
       </c>
@@ -3461,17 +3458,17 @@
       <selection activeCell="B14" sqref="A1:J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.453125" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1601</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1702</v>
       </c>
@@ -3570,7 +3567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1703</v>
       </c>
@@ -3602,7 +3599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1612</v>
       </c>
@@ -3634,7 +3631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1613</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1617</v>
       </c>
@@ -3698,7 +3695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1620</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1621</v>
       </c>
@@ -3762,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1622</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1627</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1630</v>
       </c>
@@ -3858,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1632</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1633</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1634</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1635</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1636</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1638</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1640</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1644</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1648</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1653</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1657</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1662</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1663</v>
       </c>
@@ -4274,7 +4271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1664</v>
       </c>
@@ -4306,7 +4303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1665</v>
       </c>
@@ -4338,7 +4335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1711</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1714</v>
       </c>
@@ -4402,7 +4399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1717</v>
       </c>
@@ -4434,7 +4431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1719</v>
       </c>
@@ -4466,7 +4463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1721</v>
       </c>
@@ -4498,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1725</v>
       </c>
@@ -4562,7 +4559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1736</v>
       </c>
@@ -4594,7 +4591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1738</v>
       </c>
@@ -4626,7 +4623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1739</v>
       </c>
@@ -4658,7 +4655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1740</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1742</v>
       </c>
@@ -4722,7 +4719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1743</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1744</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1748</v>
       </c>
@@ -4818,7 +4815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1749</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1750</v>
       </c>
@@ -4882,7 +4879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1751</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1755</v>
       </c>
@@ -4946,7 +4943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1729</v>
       </c>
@@ -4978,7 +4975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1624</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1567</v>
       </c>
@@ -5042,7 +5039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1571</v>
       </c>
@@ -5074,7 +5071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1718</v>
       </c>
@@ -5106,7 +5103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1723</v>
       </c>
@@ -5138,7 +5135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16</v>
       </c>
@@ -5170,7 +5167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>17</v>
       </c>
@@ -5216,12 +5213,12 @@
       <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
@@ -5229,7 +5226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -5237,7 +5234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -5245,7 +5242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -5261,7 +5258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5269,7 +5266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>34</v>
       </c>
@@ -5277,7 +5274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -5301,7 +5298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -5325,7 +5322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
@@ -5333,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -5341,7 +5338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -5349,7 +5346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -5357,7 +5354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -5381,7 +5378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
@@ -5389,7 +5386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
@@ -5405,7 +5402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>37</v>
       </c>
@@ -5413,7 +5410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>52</v>
       </c>
@@ -5421,7 +5418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -5429,7 +5426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>50</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>45</v>
       </c>
@@ -5453,7 +5450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>12</v>
       </c>
@@ -5461,7 +5458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +5466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>15</v>
       </c>
@@ -5493,7 +5490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>48</v>
       </c>
@@ -5501,7 +5498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>16</v>
       </c>
@@ -5509,7 +5506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>17</v>
       </c>
@@ -5517,7 +5514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>18</v>
       </c>
@@ -5525,7 +5522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
@@ -5533,7 +5530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>20</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>21</v>
       </c>
@@ -5549,7 +5546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
@@ -5557,7 +5554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>23</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>24</v>
       </c>
@@ -5573,7 +5570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>25</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>26</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>11</v>
       </c>
@@ -5597,7 +5594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>64</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>57</v>
       </c>
@@ -5613,7 +5610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>63</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>65</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>66</v>
       </c>
@@ -5637,7 +5634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>3</v>
       </c>
@@ -5645,7 +5642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
@@ -5653,7 +5650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -5661,7 +5658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -5678,19 +5675,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
   <dimension ref="A1:D266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -5704,7 +5701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1601</v>
       </c>
@@ -5718,7 +5715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1702</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1703</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1612</v>
       </c>
@@ -5760,7 +5757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1613</v>
       </c>
@@ -5774,7 +5771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1617</v>
       </c>
@@ -5788,7 +5785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1620</v>
       </c>
@@ -5802,7 +5799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1621</v>
       </c>
@@ -5816,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1622</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1627</v>
       </c>
@@ -5844,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1630</v>
       </c>
@@ -5858,7 +5855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1632</v>
       </c>
@@ -5872,7 +5869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1633</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1634</v>
       </c>
@@ -5900,7 +5897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1635</v>
       </c>
@@ -5914,7 +5911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1636</v>
       </c>
@@ -5928,7 +5925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1638</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1640</v>
       </c>
@@ -5956,7 +5953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1644</v>
       </c>
@@ -5970,7 +5967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1648</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1653</v>
       </c>
@@ -5998,7 +5995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1657</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1662</v>
       </c>
@@ -6026,7 +6023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1663</v>
       </c>
@@ -6040,7 +6037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1664</v>
       </c>
@@ -6054,7 +6051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1665</v>
       </c>
@@ -6068,7 +6065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1711</v>
       </c>
@@ -6082,7 +6079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1714</v>
       </c>
@@ -6096,7 +6093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1717</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1719</v>
       </c>
@@ -6124,7 +6121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1721</v>
       </c>
@@ -6138,7 +6135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1725</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1736</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1738</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1739</v>
       </c>
@@ -6208,7 +6205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1740</v>
       </c>
@@ -6222,7 +6219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1742</v>
       </c>
@@ -6236,7 +6233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1743</v>
       </c>
@@ -6250,7 +6247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1744</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1748</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1749</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1750</v>
       </c>
@@ -6306,7 +6303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1751</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1755</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1729</v>
       </c>
@@ -6348,7 +6345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1624</v>
       </c>
@@ -6362,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1567</v>
       </c>
@@ -6376,7 +6373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1571</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1718</v>
       </c>
@@ -6404,7 +6401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1723</v>
       </c>
@@ -6418,7 +6415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>17</v>
       </c>
@@ -6446,7 +6443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1601</v>
       </c>
@@ -6460,7 +6457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1702</v>
       </c>
@@ -6474,7 +6471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1703</v>
       </c>
@@ -6488,7 +6485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1612</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1613</v>
       </c>
@@ -6516,7 +6513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1617</v>
       </c>
@@ -6530,7 +6527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1620</v>
       </c>
@@ -6544,7 +6541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1621</v>
       </c>
@@ -6558,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1622</v>
       </c>
@@ -6572,7 +6569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1627</v>
       </c>
@@ -6586,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1630</v>
       </c>
@@ -6600,7 +6597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1632</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1633</v>
       </c>
@@ -6628,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1634</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1635</v>
       </c>
@@ -6656,7 +6653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1636</v>
       </c>
@@ -6670,7 +6667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1638</v>
       </c>
@@ -6684,7 +6681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1640</v>
       </c>
@@ -6698,7 +6695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1644</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1648</v>
       </c>
@@ -6726,7 +6723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1653</v>
       </c>
@@ -6740,7 +6737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1657</v>
       </c>
@@ -6754,7 +6751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1662</v>
       </c>
@@ -6768,7 +6765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1663</v>
       </c>
@@ -6782,7 +6779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1664</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1665</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1711</v>
       </c>
@@ -6824,7 +6821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1714</v>
       </c>
@@ -6838,7 +6835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1717</v>
       </c>
@@ -6852,7 +6849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1719</v>
       </c>
@@ -6866,7 +6863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1721</v>
       </c>
@@ -6880,7 +6877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1724</v>
       </c>
@@ -6894,7 +6891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1725</v>
       </c>
@@ -6908,7 +6905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1736</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1738</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1739</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1740</v>
       </c>
@@ -6964,7 +6961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1742</v>
       </c>
@@ -6978,7 +6975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1743</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1744</v>
       </c>
@@ -7006,7 +7003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1748</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1749</v>
       </c>
@@ -7034,7 +7031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1750</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1751</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1755</v>
       </c>
@@ -7076,7 +7073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1756</v>
       </c>
@@ -7090,7 +7087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1624</v>
       </c>
@@ -7104,7 +7101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1567</v>
       </c>
@@ -7118,7 +7115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1571</v>
       </c>
@@ -7132,7 +7129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1718</v>
       </c>
@@ -7146,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1756</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>16</v>
       </c>
@@ -7174,7 +7171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>17</v>
       </c>
@@ -7188,7 +7185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5001</v>
       </c>
@@ -7202,7 +7199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5004</v>
       </c>
@@ -7216,7 +7213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5005</v>
       </c>
@@ -7230,7 +7227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5011</v>
       </c>
@@ -7244,7 +7241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5012</v>
       </c>
@@ -7258,7 +7255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5013</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>5014</v>
       </c>
@@ -7286,7 +7283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5015</v>
       </c>
@@ -7300,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>5016</v>
       </c>
@@ -7314,7 +7311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>5017</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>5018</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>5019</v>
       </c>
@@ -7356,7 +7353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>5020</v>
       </c>
@@ -7370,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>5021</v>
       </c>
@@ -7384,7 +7381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>5022</v>
       </c>
@@ -7398,7 +7395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>5023</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>5024</v>
       </c>
@@ -7426,7 +7423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>5025</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>5026</v>
       </c>
@@ -7454,7 +7451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>5027</v>
       </c>
@@ -7468,7 +7465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>5028</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>5029</v>
       </c>
@@ -7496,7 +7493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>5030</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>5031</v>
       </c>
@@ -7524,7 +7521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>5032</v>
       </c>
@@ -7538,7 +7535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>5033</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>5034</v>
       </c>
@@ -7566,7 +7563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>5035</v>
       </c>
@@ -7580,7 +7577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>5036</v>
       </c>
@@ -7594,7 +7591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>5037</v>
       </c>
@@ -7608,7 +7605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>5038</v>
       </c>
@@ -7622,7 +7619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>5039</v>
       </c>
@@ -7636,7 +7633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>5040</v>
       </c>
@@ -7650,7 +7647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>5041</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5042</v>
       </c>
@@ -7678,7 +7675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>5043</v>
       </c>
@@ -7692,7 +7689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>5044</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>5045</v>
       </c>
@@ -7720,7 +7717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>5046</v>
       </c>
@@ -7734,7 +7731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>5047</v>
       </c>
@@ -7748,7 +7745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>5048</v>
       </c>
@@ -7762,7 +7759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>5049</v>
       </c>
@@ -7776,7 +7773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>5050</v>
       </c>
@@ -7790,7 +7787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>5051</v>
       </c>
@@ -7804,7 +7801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>5052</v>
       </c>
@@ -7818,7 +7815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>5053</v>
       </c>
@@ -7832,7 +7829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>5054</v>
       </c>
@@ -7846,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1567</v>
       </c>
@@ -7860,7 +7857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1571</v>
       </c>
@@ -7874,7 +7871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>5054</v>
       </c>
@@ -7888,7 +7885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>5053</v>
       </c>
@@ -7902,7 +7899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>50</v>
       </c>
@@ -7916,7 +7913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>50</v>
       </c>
@@ -7930,7 +7927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>5001</v>
       </c>
@@ -7944,7 +7941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5006</v>
       </c>
@@ -7958,7 +7955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>5005</v>
       </c>
@@ -7972,7 +7969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>5011</v>
       </c>
@@ -7986,7 +7983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>5012</v>
       </c>
@@ -8000,7 +7997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>5013</v>
       </c>
@@ -8014,7 +8011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>5014</v>
       </c>
@@ -8028,7 +8025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>5015</v>
       </c>
@@ -8042,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>5016</v>
       </c>
@@ -8056,7 +8053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>5017</v>
       </c>
@@ -8070,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>5018</v>
       </c>
@@ -8084,7 +8081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>5019</v>
       </c>
@@ -8098,7 +8095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>5020</v>
       </c>
@@ -8112,7 +8109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>5021</v>
       </c>
@@ -8126,7 +8123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>5022</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>5023</v>
       </c>
@@ -8154,7 +8151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>5024</v>
       </c>
@@ -8168,7 +8165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>5025</v>
       </c>
@@ -8182,7 +8179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>5026</v>
       </c>
@@ -8196,7 +8193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>5027</v>
       </c>
@@ -8210,7 +8207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>5028</v>
       </c>
@@ -8224,7 +8221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>5029</v>
       </c>
@@ -8238,7 +8235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>5030</v>
       </c>
@@ -8252,7 +8249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>5031</v>
       </c>
@@ -8266,7 +8263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>5032</v>
       </c>
@@ -8280,7 +8277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>5033</v>
       </c>
@@ -8294,7 +8291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>5034</v>
       </c>
@@ -8308,7 +8305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>5035</v>
       </c>
@@ -8322,7 +8319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>5036</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>5037</v>
       </c>
@@ -8350,7 +8347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>5038</v>
       </c>
@@ -8364,7 +8361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>5039</v>
       </c>
@@ -8378,7 +8375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>5040</v>
       </c>
@@ -8392,7 +8389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>5041</v>
       </c>
@@ -8406,7 +8403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>5042</v>
       </c>
@@ -8420,7 +8417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>5043</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>5044</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>5045</v>
       </c>
@@ -8462,7 +8459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>5046</v>
       </c>
@@ -8476,7 +8473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>5047</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>5048</v>
       </c>
@@ -8504,7 +8501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>5049</v>
       </c>
@@ -8518,7 +8515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>5050</v>
       </c>
@@ -8532,7 +8529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>5051</v>
       </c>
@@ -8546,7 +8543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>5052</v>
       </c>
@@ -8560,7 +8557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>5053</v>
       </c>
@@ -8574,7 +8571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>5054</v>
       </c>
@@ -8588,7 +8585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>5061</v>
       </c>
@@ -8602,7 +8599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1571</v>
       </c>
@@ -8616,7 +8613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>5054</v>
       </c>
@@ -8630,7 +8627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>5053</v>
       </c>
@@ -8644,7 +8641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>50</v>
       </c>
@@ -8658,7 +8655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>50</v>
       </c>
@@ -8672,7 +8669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>5001</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>5006</v>
       </c>
@@ -8700,7 +8697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>5007</v>
       </c>
@@ -8714,7 +8711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>5055</v>
       </c>
@@ -8728,7 +8725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>5059</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>5056</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>5014</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>5057</v>
       </c>
@@ -8784,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>5059</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>5057</v>
       </c>
@@ -8812,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>5058</v>
       </c>
@@ -8826,7 +8823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>5058</v>
       </c>
@@ -8840,7 +8837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>5020</v>
       </c>
@@ -8854,7 +8851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>5021</v>
       </c>
@@ -8868,7 +8865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>5022</v>
       </c>
@@ -8882,7 +8879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>5059</v>
       </c>
@@ -8896,7 +8893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>5059</v>
       </c>
@@ -8910,7 +8907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>5025</v>
       </c>
@@ -8924,7 +8921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>5026</v>
       </c>
@@ -8938,7 +8935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>5027</v>
       </c>
@@ -8952,7 +8949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>5028</v>
       </c>
@@ -8966,7 +8963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>5029</v>
       </c>
@@ -8980,7 +8977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>5001</v>
       </c>
@@ -8994,7 +8991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>5031</v>
       </c>
@@ -9008,7 +9005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>5032</v>
       </c>
@@ -9022,7 +9019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>5033</v>
       </c>
@@ -9036,7 +9033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>5034</v>
       </c>
@@ -9050,7 +9047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>5035</v>
       </c>
@@ -9064,7 +9061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>5036</v>
       </c>
@@ -9078,7 +9075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>5037</v>
       </c>
@@ -9092,7 +9089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>5038</v>
       </c>
@@ -9106,7 +9103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>5006</v>
       </c>
@@ -9120,7 +9117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>5007</v>
       </c>
@@ -9134,7 +9131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>5041</v>
       </c>
@@ -9148,7 +9145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>5042</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>5043</v>
       </c>
@@ -9176,7 +9173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>5044</v>
       </c>
@@ -9190,7 +9187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>5045</v>
       </c>
@@ -9204,7 +9201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>5046</v>
       </c>
@@ -9218,7 +9215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>5047</v>
       </c>
@@ -9232,7 +9229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>5007</v>
       </c>
@@ -9246,7 +9243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>5049</v>
       </c>
@@ -9260,7 +9257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>5060</v>
       </c>
@@ -9274,7 +9271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>5060</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>5052</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>5053</v>
       </c>
@@ -9316,7 +9313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>5054</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>5061</v>
       </c>
@@ -9344,7 +9341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>5055</v>
       </c>
@@ -9358,7 +9355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>5054</v>
       </c>
@@ -9372,7 +9369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>5053</v>
       </c>
@@ -9386,7 +9383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>50</v>
       </c>
@@ -9400,7 +9397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>50</v>
       </c>
@@ -9429,12 +9426,12 @@
       <selection activeCell="B191" sqref="B180:B191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9445,7 +9442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9456,7 +9453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -9467,7 +9464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -9489,7 +9486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -9500,7 +9497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -9511,7 +9508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -9522,7 +9519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -9533,7 +9530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -9544,7 +9541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -9555,7 +9552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -9566,7 +9563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -9577,7 +9574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9588,7 +9585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9599,7 +9596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9610,7 +9607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -9621,7 +9618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -9632,7 +9629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -9643,7 +9640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -9654,7 +9651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -9665,7 +9662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -9676,7 +9673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -9687,7 +9684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -9698,7 +9695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -9720,7 +9717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -9731,7 +9728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9753,7 +9750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -9764,7 +9761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -9775,7 +9772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9786,7 +9783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -9797,7 +9794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -9808,7 +9805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -9819,7 +9816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -9830,7 +9827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -9841,7 +9838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -9852,7 +9849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -9863,7 +9860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -9874,7 +9871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9885,7 +9882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -9896,7 +9893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -9907,7 +9904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -9918,7 +9915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9929,7 +9926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -9951,7 +9948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -9962,7 +9959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -9973,7 +9970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -9984,7 +9981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -9995,7 +9992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -10006,7 +10003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -10017,7 +10014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -10028,7 +10025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -10039,7 +10036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -10050,7 +10047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -10061,7 +10058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -10083,7 +10080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -10105,7 +10102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -10116,7 +10113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -10127,7 +10124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -10138,7 +10135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -10149,7 +10146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -10160,7 +10157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -10171,7 +10168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -10182,7 +10179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -10193,7 +10190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -10215,7 +10212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -10226,7 +10223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -10237,7 +10234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -10248,7 +10245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -10259,7 +10256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -10270,7 +10267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -10281,7 +10278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -10292,7 +10289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -10303,7 +10300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -10314,7 +10311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -10336,7 +10333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -10347,7 +10344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -10358,7 +10355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -10369,7 +10366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -10380,7 +10377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -10391,7 +10388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -10402,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -10413,7 +10410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -10424,7 +10421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -10435,7 +10432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -10446,7 +10443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -10457,7 +10454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -10468,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -10479,7 +10476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>56</v>
       </c>
@@ -10490,7 +10487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>56</v>
       </c>
@@ -10501,7 +10498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -10512,7 +10509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>56</v>
       </c>
@@ -10523,7 +10520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -10534,7 +10531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -10545,7 +10542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>56</v>
       </c>
@@ -10567,7 +10564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -10578,7 +10575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>56</v>
       </c>
@@ -10589,7 +10586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>56</v>
       </c>
@@ -10600,7 +10597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -10611,7 +10608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -10622,7 +10619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>46</v>
       </c>
@@ -10633,7 +10630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -10644,7 +10641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -10655,7 +10652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>46</v>
       </c>
@@ -10666,7 +10663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -10688,7 +10685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -10699,7 +10696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -10710,7 +10707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>46</v>
       </c>
@@ -10721,7 +10718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -10732,7 +10729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>46</v>
       </c>
@@ -10743,7 +10740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>46</v>
       </c>
@@ -10754,7 +10751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>46</v>
       </c>
@@ -10765,7 +10762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>46</v>
       </c>
@@ -10776,7 +10773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>46</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>46</v>
       </c>
@@ -10798,7 +10795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>46</v>
       </c>
@@ -10809,7 +10806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>46</v>
       </c>
@@ -10820,7 +10817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>46</v>
       </c>
@@ -10831,7 +10828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -10842,7 +10839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>46</v>
       </c>
@@ -10853,7 +10850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>46</v>
       </c>
@@ -10864,7 +10861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>46</v>
       </c>
@@ -10875,7 +10872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -10886,7 +10883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>46</v>
       </c>
@@ -10897,7 +10894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>46</v>
       </c>
@@ -10908,7 +10905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -10919,7 +10916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>46</v>
       </c>
@@ -10930,7 +10927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>46</v>
       </c>
@@ -10941,7 +10938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>46</v>
       </c>
@@ -10952,7 +10949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>46</v>
       </c>
@@ -10963,7 +10960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>46</v>
       </c>
@@ -10974,7 +10971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>46</v>
       </c>
@@ -10996,7 +10993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -11007,7 +11004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -11018,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>79</v>
       </c>
@@ -11029,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>79</v>
       </c>
@@ -11040,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>79</v>
       </c>
@@ -11051,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>79</v>
       </c>
@@ -11062,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>79</v>
       </c>
@@ -11073,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -11084,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>79</v>
       </c>
@@ -11095,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>79</v>
       </c>
@@ -11106,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>79</v>
       </c>
@@ -11117,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -11128,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>79</v>
       </c>
@@ -11139,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>79</v>
       </c>
@@ -11150,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -11161,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>79</v>
       </c>
@@ -11172,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -11183,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>79</v>
       </c>
@@ -11194,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>79</v>
       </c>
@@ -11205,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>79</v>
       </c>
@@ -11216,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -11227,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -11238,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>79</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>79</v>
       </c>
@@ -11260,7 +11257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -11271,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>79</v>
       </c>
@@ -11282,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>79</v>
       </c>
@@ -11293,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>79</v>
       </c>
@@ -11304,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -11315,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>79</v>
       </c>
@@ -11326,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -11337,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>79</v>
       </c>
@@ -11348,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>79</v>
       </c>
@@ -11359,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>79</v>
       </c>
@@ -11370,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>79</v>
       </c>
@@ -11381,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>79</v>
       </c>
@@ -11392,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>79</v>
       </c>
@@ -11403,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>79</v>
       </c>
@@ -11414,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>79</v>
       </c>
@@ -11425,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>79</v>
       </c>
@@ -11436,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>79</v>
       </c>
@@ -11447,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>79</v>
       </c>
@@ -11458,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>79</v>
       </c>
@@ -11469,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>79</v>
       </c>
@@ -11480,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -11491,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>79</v>
       </c>
@@ -11502,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>79</v>
       </c>
@@ -11513,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>79</v>
       </c>
@@ -11524,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>79</v>
       </c>
@@ -11535,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>83</v>
       </c>
@@ -11546,7 +11543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>83</v>
       </c>
@@ -11557,7 +11554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>83</v>
       </c>
@@ -11568,7 +11565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>83</v>
       </c>
@@ -11579,7 +11576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>83</v>
       </c>
@@ -11590,7 +11587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>83</v>
       </c>
@@ -11601,7 +11598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>83</v>
       </c>
@@ -11612,7 +11609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>83</v>
       </c>
@@ -11623,7 +11620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>83</v>
       </c>
@@ -11634,7 +11631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -11645,7 +11642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>83</v>
       </c>
@@ -11656,7 +11653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>83</v>
       </c>
@@ -11667,7 +11664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>83</v>
       </c>
@@ -11678,7 +11675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>83</v>
       </c>
@@ -11689,7 +11686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>83</v>
       </c>
@@ -11700,7 +11697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>83</v>
       </c>
@@ -11711,7 +11708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>83</v>
       </c>
@@ -11722,7 +11719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>83</v>
       </c>
@@ -11733,7 +11730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>83</v>
       </c>
@@ -11744,7 +11741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>83</v>
       </c>
@@ -11755,7 +11752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>83</v>
       </c>
@@ -11766,7 +11763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>83</v>
       </c>
@@ -11777,7 +11774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>83</v>
       </c>
@@ -11788,7 +11785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>83</v>
       </c>
@@ -11799,7 +11796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>83</v>
       </c>
@@ -11821,7 +11818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>83</v>
       </c>
@@ -11832,7 +11829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>83</v>
       </c>
@@ -11843,7 +11840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>83</v>
       </c>
@@ -11854,7 +11851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>83</v>
       </c>
@@ -11865,7 +11862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>83</v>
       </c>
@@ -11876,7 +11873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>83</v>
       </c>
@@ -11887,7 +11884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>83</v>
       </c>
@@ -11898,7 +11895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>83</v>
       </c>
@@ -11909,7 +11906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>83</v>
       </c>
@@ -11920,7 +11917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>83</v>
       </c>
@@ -11931,7 +11928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>83</v>
       </c>
@@ -11942,7 +11939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>83</v>
       </c>
@@ -11953,7 +11950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>83</v>
       </c>
@@ -11964,7 +11961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>83</v>
       </c>
@@ -11975,7 +11972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>83</v>
       </c>
@@ -11986,7 +11983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>83</v>
       </c>
@@ -11997,7 +11994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>83</v>
       </c>
@@ -12008,7 +12005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>83</v>
       </c>
@@ -12019,7 +12016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>83</v>
       </c>
@@ -12030,7 +12027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>83</v>
       </c>
@@ -12041,7 +12038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>83</v>
       </c>
@@ -12059,21 +12056,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDC53F-31A0-42A3-B19C-2B5F3741C9F8}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -12087,7 +12084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1601</v>
       </c>
@@ -12101,7 +12098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1702</v>
       </c>
@@ -12115,7 +12112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1703</v>
       </c>
@@ -12129,7 +12126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1612</v>
       </c>
@@ -12143,7 +12140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1613</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1617</v>
       </c>
@@ -12171,7 +12168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1620</v>
       </c>
@@ -12185,7 +12182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1621</v>
       </c>
@@ -12199,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1622</v>
       </c>
@@ -12213,7 +12210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1627</v>
       </c>
@@ -12227,7 +12224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1630</v>
       </c>
@@ -12241,7 +12238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1632</v>
       </c>
@@ -12255,7 +12252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1633</v>
       </c>
@@ -12269,7 +12266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1634</v>
       </c>
@@ -12283,7 +12280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1635</v>
       </c>
@@ -12297,7 +12294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1636</v>
       </c>
@@ -12311,7 +12308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1638</v>
       </c>
@@ -12325,7 +12322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1640</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1644</v>
       </c>
@@ -12353,7 +12350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1648</v>
       </c>
@@ -12367,7 +12364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1653</v>
       </c>
@@ -12381,7 +12378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1657</v>
       </c>
@@ -12395,7 +12392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1662</v>
       </c>
@@ -12409,7 +12406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1663</v>
       </c>
@@ -12423,7 +12420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1664</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1665</v>
       </c>
@@ -12451,7 +12448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1711</v>
       </c>
@@ -12465,7 +12462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1714</v>
       </c>
@@ -12479,7 +12476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1717</v>
       </c>
@@ -12493,7 +12490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1719</v>
       </c>
@@ -12507,7 +12504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1721</v>
       </c>
@@ -12521,7 +12518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -12535,7 +12532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1725</v>
       </c>
@@ -12549,7 +12546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1736</v>
       </c>
@@ -12563,7 +12560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1738</v>
       </c>
@@ -12577,7 +12574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1739</v>
       </c>
@@ -12591,7 +12588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1740</v>
       </c>
@@ -12605,7 +12602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1742</v>
       </c>
@@ -12619,7 +12616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1743</v>
       </c>
@@ -12633,7 +12630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1744</v>
       </c>
@@ -12647,7 +12644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1748</v>
       </c>
@@ -12661,7 +12658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1749</v>
       </c>
@@ -12675,7 +12672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1750</v>
       </c>
@@ -12689,7 +12686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1751</v>
       </c>
@@ -12703,7 +12700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1755</v>
       </c>
@@ -12717,7 +12714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1729</v>
       </c>
@@ -12731,7 +12728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1624</v>
       </c>
@@ -12745,7 +12742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1567</v>
       </c>
@@ -12759,7 +12756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1571</v>
       </c>
@@ -12773,7 +12770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1718</v>
       </c>
@@ -12787,7 +12784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1723</v>
       </c>
@@ -12801,7 +12798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>16</v>
       </c>
@@ -12815,7 +12812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>17</v>
       </c>
@@ -12829,7 +12826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1756</v>
       </c>
@@ -12843,7 +12840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5001</v>
       </c>
@@ -12857,7 +12854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5004</v>
       </c>
@@ -12871,7 +12868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5005</v>
       </c>
@@ -12885,7 +12882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5011</v>
       </c>
@@ -12899,7 +12896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5012</v>
       </c>
@@ -12913,7 +12910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5013</v>
       </c>
@@ -12927,7 +12924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5014</v>
       </c>
@@ -12941,7 +12938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5015</v>
       </c>
@@ -12955,7 +12952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5016</v>
       </c>
@@ -12969,7 +12966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5017</v>
       </c>
@@ -12983,7 +12980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5018</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5019</v>
       </c>
@@ -13011,7 +13008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>5020</v>
       </c>
@@ -13025,7 +13022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>5021</v>
       </c>
@@ -13039,7 +13036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5022</v>
       </c>
@@ -13053,7 +13050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5023</v>
       </c>
@@ -13067,7 +13064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>5024</v>
       </c>
@@ -13081,7 +13078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>5025</v>
       </c>
@@ -13095,7 +13092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>5026</v>
       </c>
@@ -13109,7 +13106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5027</v>
       </c>
@@ -13123,7 +13120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>5028</v>
       </c>
@@ -13137,7 +13134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>5029</v>
       </c>
@@ -13151,7 +13148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>5030</v>
       </c>
@@ -13165,7 +13162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>5031</v>
       </c>
@@ -13179,7 +13176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>5032</v>
       </c>
@@ -13193,7 +13190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5033</v>
       </c>
@@ -13207,7 +13204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5034</v>
       </c>
@@ -13221,7 +13218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>5035</v>
       </c>
@@ -13235,7 +13232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>5036</v>
       </c>
@@ -13249,7 +13246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>5037</v>
       </c>
@@ -13263,7 +13260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5038</v>
       </c>
@@ -13277,7 +13274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5039</v>
       </c>
@@ -13291,7 +13288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5040</v>
       </c>
@@ -13305,7 +13302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5041</v>
       </c>
@@ -13319,7 +13316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5042</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5043</v>
       </c>
@@ -13347,7 +13344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5044</v>
       </c>
@@ -13361,7 +13358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>5045</v>
       </c>
@@ -13375,7 +13372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5046</v>
       </c>
@@ -13389,7 +13386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5047</v>
       </c>
@@ -13403,7 +13400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5048</v>
       </c>
@@ -13417,7 +13414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5049</v>
       </c>
@@ -13431,7 +13428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5050</v>
       </c>
@@ -13445,7 +13442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5051</v>
       </c>
@@ -13459,7 +13456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5052</v>
       </c>
@@ -13473,7 +13470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5053</v>
       </c>
@@ -13487,7 +13484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5054</v>
       </c>
@@ -13501,7 +13498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1567</v>
       </c>
@@ -13515,7 +13512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1571</v>
       </c>
@@ -13529,7 +13526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>5054</v>
       </c>
@@ -13543,7 +13540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5053</v>
       </c>
@@ -13557,7 +13554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>50</v>
       </c>
@@ -13571,7 +13568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>50</v>
       </c>
@@ -13585,7 +13582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5061</v>
       </c>
@@ -13597,20 +13594,6 @@
       </c>
       <c r="D109" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1579</v>
-      </c>
-      <c r="B110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110">
-        <v>1576</v>
-      </c>
-      <c r="D110" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -13627,12 +13610,12 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -13640,7 +13623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>79</v>
       </c>
@@ -13648,7 +13631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>55</v>
       </c>
@@ -13656,7 +13639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
@@ -13664,7 +13647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -13672,7 +13655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -13680,7 +13663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
@@ -13688,7 +13671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>62</v>
       </c>
@@ -13696,7 +13679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
@@ -13704,7 +13687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -13712,7 +13695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -13720,7 +13703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -13728,7 +13711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -13736,7 +13719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -13744,7 +13727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>83</v>
       </c>
@@ -13758,26 +13741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13978,32 +13941,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFCF235-396D-47B1-BFB4-0126AF1A6DF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14020,4 +13978,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{E324DA56-F1F7-47F8-8A8A-5C64FF955829}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DE0D4E-D9B7-42E1-A68C-EAEAF7964A83}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Rekkefolge" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="93">
   <si>
     <t>Fosen</t>
   </si>
@@ -1215,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED8356-1544-409B-8D21-6D6D09A19FDC}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3455,7 +3455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE73AB4A-2BD5-452B-A4AF-7E492ACD2A7F}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -5210,8 +5210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:B56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,10 +5674,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D267" sqref="D267"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6446,164 +6446,164 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1601</v>
+        <v>1756</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>5001</v>
+        <v>5053</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1702</v>
+        <v>5001</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>5006</v>
+        <v>5001</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1703</v>
+        <v>5004</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1612</v>
+        <v>5005</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>5055</v>
+        <v>5007</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1613</v>
+        <v>5011</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59">
-        <v>5059</v>
+        <v>5055</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1617</v>
+        <v>5012</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60">
-        <v>5056</v>
+        <v>5059</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1620</v>
+        <v>5013</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61">
-        <v>5014</v>
+        <v>5056</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1621</v>
+        <v>5014</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C62">
-        <v>5057</v>
+        <v>5014</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1622</v>
+        <v>5015</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1627</v>
+        <v>5016</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>5057</v>
+        <v>5059</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1630</v>
+        <v>5017</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1632</v>
+        <v>5018</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>5058</v>
@@ -6614,66 +6614,66 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1633</v>
+        <v>5019</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>5020</v>
+        <v>5058</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1634</v>
+        <v>5020</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1635</v>
+        <v>5021</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1636</v>
+        <v>5022</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>5059</v>
+        <v>5022</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1638</v>
+        <v>5023</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C71">
         <v>5059</v>
@@ -6684,374 +6684,374 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1640</v>
+        <v>5024</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>5025</v>
+        <v>5059</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1644</v>
+        <v>5025</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1648</v>
+        <v>5026</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1653</v>
+        <v>5027</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C75">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1657</v>
+        <v>5028</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C76">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1662</v>
+        <v>5029</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C77">
-        <v>5001</v>
+        <v>5029</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1663</v>
+        <v>5030</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>5031</v>
+        <v>5001</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1664</v>
+        <v>5031</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1665</v>
+        <v>5032</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1711</v>
+        <v>5033</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C81">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1714</v>
+        <v>5034</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C82">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1717</v>
+        <v>5035</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C83">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1719</v>
+        <v>5036</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C84">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1721</v>
+        <v>5037</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1724</v>
+        <v>5038</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>5006</v>
+        <v>5038</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1725</v>
+        <v>5039</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C87">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1736</v>
+        <v>5040</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>5041</v>
+        <v>5007</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1738</v>
+        <v>5041</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1739</v>
+        <v>5042</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1740</v>
+        <v>5043</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1742</v>
+        <v>5044</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1743</v>
+        <v>5045</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1744</v>
+        <v>5046</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1748</v>
+        <v>5047</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95">
-        <v>5007</v>
+        <v>5047</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1749</v>
+        <v>5048</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>5049</v>
+        <v>5007</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1750</v>
+        <v>5049</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97">
-        <v>5060</v>
+        <v>5049</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1751</v>
+        <v>5050</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C98">
         <v>5060</v>
@@ -7062,2358 +7062,202 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1755</v>
+        <v>5051</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C99">
-        <v>5052</v>
+        <v>5060</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1756</v>
+        <v>5052</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1624</v>
+        <v>5053</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="D101" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1567</v>
+        <v>5054</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1571</v>
+        <v>50</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C103">
-        <v>5055</v>
+        <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1718</v>
+        <v>5006</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>5054</v>
+        <v>5006</v>
       </c>
       <c r="D104" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1756</v>
+        <v>5061</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C105">
-        <v>5053</v>
+        <v>5061</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>16</v>
+        <v>5007</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>5007</v>
       </c>
       <c r="D106" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>17</v>
+        <v>5055</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C107">
-        <v>50</v>
+        <v>5055</v>
       </c>
       <c r="D107" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5001</v>
+        <v>5059</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C108">
-        <v>5001</v>
+        <v>5059</v>
       </c>
       <c r="D108" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5004</v>
+        <v>5056</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C109">
-        <v>5006</v>
+        <v>5056</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5005</v>
+        <v>5057</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>5007</v>
+        <v>5057</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5011</v>
+        <v>5058</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>5055</v>
+        <v>5058</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5012</v>
+        <v>5060</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C112">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>5013</v>
-      </c>
-      <c r="B113" t="s">
-        <v>33</v>
-      </c>
-      <c r="C113">
-        <v>5056</v>
-      </c>
-      <c r="D113" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>5014</v>
-      </c>
-      <c r="B114" t="s">
-        <v>34</v>
-      </c>
-      <c r="C114">
-        <v>5014</v>
-      </c>
-      <c r="D114" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>5015</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>5057</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>5016</v>
-      </c>
-      <c r="B116" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116">
-        <v>5059</v>
-      </c>
-      <c r="D116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>5017</v>
-      </c>
-      <c r="B117" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117">
-        <v>5057</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>5018</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>5058</v>
-      </c>
-      <c r="D118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>5019</v>
-      </c>
-      <c r="B119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119">
-        <v>5058</v>
-      </c>
-      <c r="D119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>5020</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120">
-        <v>5020</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>5021</v>
-      </c>
-      <c r="B121" t="s">
-        <v>37</v>
-      </c>
-      <c r="C121">
-        <v>5021</v>
-      </c>
-      <c r="D121" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>5022</v>
-      </c>
-      <c r="B122" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122">
-        <v>5022</v>
-      </c>
-      <c r="D122" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>5023</v>
-      </c>
-      <c r="B123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C123">
-        <v>5059</v>
-      </c>
-      <c r="D123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>5024</v>
-      </c>
-      <c r="B124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124">
-        <v>5059</v>
-      </c>
-      <c r="D124" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>5025</v>
-      </c>
-      <c r="B125" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125">
-        <v>5025</v>
-      </c>
-      <c r="D125" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>5026</v>
-      </c>
-      <c r="B126" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126">
-        <v>5026</v>
-      </c>
-      <c r="D126" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>5027</v>
-      </c>
-      <c r="B127" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127">
-        <v>5027</v>
-      </c>
-      <c r="D127" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>5028</v>
-      </c>
-      <c r="B128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128">
-        <v>5028</v>
-      </c>
-      <c r="D128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>5029</v>
-      </c>
-      <c r="B129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129">
-        <v>5029</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>5030</v>
-      </c>
-      <c r="B130" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130">
-        <v>5001</v>
-      </c>
-      <c r="D130" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>5031</v>
-      </c>
-      <c r="B131" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131">
-        <v>5031</v>
-      </c>
-      <c r="D131" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>5032</v>
-      </c>
-      <c r="B132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132">
-        <v>5032</v>
-      </c>
-      <c r="D132" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>5033</v>
-      </c>
-      <c r="B133" t="s">
-        <v>50</v>
-      </c>
-      <c r="C133">
-        <v>5033</v>
-      </c>
-      <c r="D133" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>5034</v>
-      </c>
-      <c r="B134" t="s">
-        <v>49</v>
-      </c>
-      <c r="C134">
-        <v>5034</v>
-      </c>
-      <c r="D134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>5035</v>
-      </c>
-      <c r="B135" t="s">
-        <v>45</v>
-      </c>
-      <c r="C135">
-        <v>5035</v>
-      </c>
-      <c r="D135" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>5036</v>
-      </c>
-      <c r="B136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136">
-        <v>5036</v>
-      </c>
-      <c r="D136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>5037</v>
-      </c>
-      <c r="B137" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137">
-        <v>5037</v>
-      </c>
-      <c r="D137" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>5038</v>
-      </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138">
-        <v>5038</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>5039</v>
-      </c>
-      <c r="B139" t="s">
-        <v>75</v>
-      </c>
-      <c r="C139">
-        <v>5006</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>5040</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140">
-        <v>5007</v>
-      </c>
-      <c r="D140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>5041</v>
-      </c>
-      <c r="B141" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141">
-        <v>5041</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>5042</v>
-      </c>
-      <c r="B142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142">
-        <v>5042</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>5043</v>
-      </c>
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143">
-        <v>5043</v>
-      </c>
-      <c r="D143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>5044</v>
-      </c>
-      <c r="B144" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144">
-        <v>5044</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>5045</v>
-      </c>
-      <c r="B145" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145">
-        <v>5045</v>
-      </c>
-      <c r="D145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>5046</v>
-      </c>
-      <c r="B146" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146">
-        <v>5046</v>
-      </c>
-      <c r="D146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>5047</v>
-      </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147">
-        <v>5047</v>
-      </c>
-      <c r="D147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>5048</v>
-      </c>
-      <c r="B148" t="s">
-        <v>21</v>
-      </c>
-      <c r="C148">
-        <v>5007</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>5049</v>
-      </c>
-      <c r="B149" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149">
-        <v>5049</v>
-      </c>
-      <c r="D149" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>5050</v>
-      </c>
-      <c r="B150" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150">
-        <v>5060</v>
-      </c>
-      <c r="D150" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>5051</v>
-      </c>
-      <c r="B151" t="s">
-        <v>76</v>
-      </c>
-      <c r="C151">
-        <v>5060</v>
-      </c>
-      <c r="D151" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>5052</v>
-      </c>
-      <c r="B152" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152">
-        <v>5052</v>
-      </c>
-      <c r="D152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>5053</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153">
-        <v>5053</v>
-      </c>
-      <c r="D153" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>5054</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154">
-        <v>5054</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1567</v>
-      </c>
-      <c r="B155" t="s">
-        <v>35</v>
-      </c>
-      <c r="C155">
-        <v>5061</v>
-      </c>
-      <c r="D155" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1571</v>
-      </c>
-      <c r="B156" t="s">
-        <v>78</v>
-      </c>
-      <c r="C156">
-        <v>5055</v>
-      </c>
-      <c r="D156" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>5054</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157">
-        <v>5054</v>
-      </c>
-      <c r="D157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>5053</v>
-      </c>
-      <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158">
-        <v>5053</v>
-      </c>
-      <c r="D158" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>50</v>
-      </c>
-      <c r="B159" t="s">
-        <v>58</v>
-      </c>
-      <c r="C159">
-        <v>50</v>
-      </c>
-      <c r="D159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>50</v>
-      </c>
-      <c r="B160" t="s">
-        <v>58</v>
-      </c>
-      <c r="C160">
-        <v>50</v>
-      </c>
-      <c r="D160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>5001</v>
-      </c>
-      <c r="B161" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161">
-        <v>5001</v>
-      </c>
-      <c r="D161" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>5006</v>
-      </c>
-      <c r="B162" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162">
-        <v>5006</v>
-      </c>
-      <c r="D162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>5005</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163">
-        <v>5007</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>5011</v>
-      </c>
-      <c r="B164" t="s">
-        <v>32</v>
-      </c>
-      <c r="C164">
-        <v>5055</v>
-      </c>
-      <c r="D164" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>5012</v>
-      </c>
-      <c r="B165" t="s">
-        <v>31</v>
-      </c>
-      <c r="C165">
-        <v>5059</v>
-      </c>
-      <c r="D165" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>5013</v>
-      </c>
-      <c r="B166" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166">
-        <v>5056</v>
-      </c>
-      <c r="D166" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>5014</v>
-      </c>
-      <c r="B167" t="s">
-        <v>34</v>
-      </c>
-      <c r="C167">
-        <v>5014</v>
-      </c>
-      <c r="D167" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>5015</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>5057</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>5016</v>
-      </c>
-      <c r="B169" t="s">
-        <v>30</v>
-      </c>
-      <c r="C169">
-        <v>5059</v>
-      </c>
-      <c r="D169" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>5017</v>
-      </c>
-      <c r="B170" t="s">
-        <v>71</v>
-      </c>
-      <c r="C170">
-        <v>5057</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>5018</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171">
-        <v>5058</v>
-      </c>
-      <c r="D171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>5019</v>
-      </c>
-      <c r="B172" t="s">
-        <v>72</v>
-      </c>
-      <c r="C172">
-        <v>5058</v>
-      </c>
-      <c r="D172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>5020</v>
-      </c>
-      <c r="B173" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173">
-        <v>5020</v>
-      </c>
-      <c r="D173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>5021</v>
-      </c>
-      <c r="B174" t="s">
-        <v>37</v>
-      </c>
-      <c r="C174">
-        <v>5021</v>
-      </c>
-      <c r="D174" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>5022</v>
-      </c>
-      <c r="B175" t="s">
-        <v>38</v>
-      </c>
-      <c r="C175">
-        <v>5022</v>
-      </c>
-      <c r="D175" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>5023</v>
-      </c>
-      <c r="B176" t="s">
-        <v>29</v>
-      </c>
-      <c r="C176">
-        <v>5059</v>
-      </c>
-      <c r="D176" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>5024</v>
-      </c>
-      <c r="B177" t="s">
-        <v>73</v>
-      </c>
-      <c r="C177">
-        <v>5059</v>
-      </c>
-      <c r="D177" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>5025</v>
-      </c>
-      <c r="B178" t="s">
-        <v>41</v>
-      </c>
-      <c r="C178">
-        <v>5025</v>
-      </c>
-      <c r="D178" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>5026</v>
-      </c>
-      <c r="B179" t="s">
-        <v>40</v>
-      </c>
-      <c r="C179">
-        <v>5026</v>
-      </c>
-      <c r="D179" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>5027</v>
-      </c>
-      <c r="B180" t="s">
-        <v>39</v>
-      </c>
-      <c r="C180">
-        <v>5027</v>
-      </c>
-      <c r="D180" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>5028</v>
-      </c>
-      <c r="B181" t="s">
-        <v>42</v>
-      </c>
-      <c r="C181">
-        <v>5028</v>
-      </c>
-      <c r="D181" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>5029</v>
-      </c>
-      <c r="B182" t="s">
-        <v>28</v>
-      </c>
-      <c r="C182">
-        <v>5029</v>
-      </c>
-      <c r="D182" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>5030</v>
-      </c>
-      <c r="B183" t="s">
-        <v>74</v>
-      </c>
-      <c r="C183">
-        <v>5001</v>
-      </c>
-      <c r="D183" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>5031</v>
-      </c>
-      <c r="B184" t="s">
-        <v>46</v>
-      </c>
-      <c r="C184">
-        <v>5031</v>
-      </c>
-      <c r="D184" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>5032</v>
-      </c>
-      <c r="B185" t="s">
-        <v>51</v>
-      </c>
-      <c r="C185">
-        <v>5032</v>
-      </c>
-      <c r="D185" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>5033</v>
-      </c>
-      <c r="B186" t="s">
-        <v>50</v>
-      </c>
-      <c r="C186">
-        <v>5033</v>
-      </c>
-      <c r="D186" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>5034</v>
-      </c>
-      <c r="B187" t="s">
-        <v>49</v>
-      </c>
-      <c r="C187">
-        <v>5034</v>
-      </c>
-      <c r="D187" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>5035</v>
-      </c>
-      <c r="B188" t="s">
-        <v>45</v>
-      </c>
-      <c r="C188">
-        <v>5035</v>
-      </c>
-      <c r="D188" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>5036</v>
-      </c>
-      <c r="B189" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189">
-        <v>5036</v>
-      </c>
-      <c r="D189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>5037</v>
-      </c>
-      <c r="B190" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190">
-        <v>5037</v>
-      </c>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>5038</v>
-      </c>
-      <c r="B191" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191">
-        <v>5038</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>5039</v>
-      </c>
-      <c r="B192" t="s">
-        <v>75</v>
-      </c>
-      <c r="C192">
-        <v>5006</v>
-      </c>
-      <c r="D192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>5040</v>
-      </c>
-      <c r="B193" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193">
-        <v>5007</v>
-      </c>
-      <c r="D193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>5041</v>
-      </c>
-      <c r="B194" t="s">
-        <v>9</v>
-      </c>
-      <c r="C194">
-        <v>5041</v>
-      </c>
-      <c r="D194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>5042</v>
-      </c>
-      <c r="B195" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195">
-        <v>5042</v>
-      </c>
-      <c r="D195" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>5043</v>
-      </c>
-      <c r="B196" t="s">
-        <v>16</v>
-      </c>
-      <c r="C196">
-        <v>5043</v>
-      </c>
-      <c r="D196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>5044</v>
-      </c>
-      <c r="B197" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197">
-        <v>5044</v>
-      </c>
-      <c r="D197" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>5045</v>
-      </c>
-      <c r="B198" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198">
-        <v>5045</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>5046</v>
-      </c>
-      <c r="B199" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199">
-        <v>5046</v>
-      </c>
-      <c r="D199" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>5047</v>
-      </c>
-      <c r="B200" t="s">
-        <v>20</v>
-      </c>
-      <c r="C200">
-        <v>5047</v>
-      </c>
-      <c r="D200" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>5048</v>
-      </c>
-      <c r="B201" t="s">
-        <v>21</v>
-      </c>
-      <c r="C201">
-        <v>5007</v>
-      </c>
-      <c r="D201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>5049</v>
-      </c>
-      <c r="B202" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202">
-        <v>5049</v>
-      </c>
-      <c r="D202" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>5050</v>
-      </c>
-      <c r="B203" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203">
-        <v>5060</v>
-      </c>
-      <c r="D203" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>5051</v>
-      </c>
-      <c r="B204" t="s">
-        <v>76</v>
-      </c>
-      <c r="C204">
-        <v>5060</v>
-      </c>
-      <c r="D204" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>5052</v>
-      </c>
-      <c r="B205" t="s">
-        <v>25</v>
-      </c>
-      <c r="C205">
-        <v>5052</v>
-      </c>
-      <c r="D205" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>5053</v>
-      </c>
-      <c r="B206" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206">
-        <v>5053</v>
-      </c>
-      <c r="D206" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>5054</v>
-      </c>
-      <c r="B207" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207">
-        <v>5054</v>
-      </c>
-      <c r="D207" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>5061</v>
-      </c>
-      <c r="B208" t="s">
-        <v>35</v>
-      </c>
-      <c r="C208">
-        <v>5061</v>
-      </c>
-      <c r="D208" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1571</v>
-      </c>
-      <c r="B209" t="s">
-        <v>78</v>
-      </c>
-      <c r="C209">
-        <v>5055</v>
-      </c>
-      <c r="D209" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>5054</v>
-      </c>
-      <c r="B210" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210">
-        <v>5054</v>
-      </c>
-      <c r="D210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>5053</v>
-      </c>
-      <c r="B211" t="s">
-        <v>10</v>
-      </c>
-      <c r="C211">
-        <v>5053</v>
-      </c>
-      <c r="D211" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>50</v>
-      </c>
-      <c r="B212" t="s">
-        <v>58</v>
-      </c>
-      <c r="C212">
-        <v>50</v>
-      </c>
-      <c r="D212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>50</v>
-      </c>
-      <c r="B213" t="s">
-        <v>58</v>
-      </c>
-      <c r="C213">
-        <v>50</v>
-      </c>
-      <c r="D213" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>5001</v>
-      </c>
-      <c r="B214" t="s">
-        <v>44</v>
-      </c>
-      <c r="C214">
-        <v>5001</v>
-      </c>
-      <c r="D214" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>5006</v>
-      </c>
-      <c r="B215" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215">
-        <v>5006</v>
-      </c>
-      <c r="D215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>5007</v>
-      </c>
-      <c r="B216" t="s">
-        <v>13</v>
-      </c>
-      <c r="C216">
-        <v>5007</v>
-      </c>
-      <c r="D216" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>5055</v>
-      </c>
-      <c r="B217" t="s">
-        <v>53</v>
-      </c>
-      <c r="C217">
-        <v>5055</v>
-      </c>
-      <c r="D217" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>5059</v>
-      </c>
-      <c r="B218" t="s">
-        <v>27</v>
-      </c>
-      <c r="C218">
-        <v>5059</v>
-      </c>
-      <c r="D218" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>5056</v>
-      </c>
-      <c r="B219" t="s">
-        <v>33</v>
-      </c>
-      <c r="C219">
-        <v>5056</v>
-      </c>
-      <c r="D219" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>5014</v>
-      </c>
-      <c r="B220" t="s">
-        <v>34</v>
-      </c>
-      <c r="C220">
-        <v>5014</v>
-      </c>
-      <c r="D220" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>5057</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221">
-        <v>5057</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>5059</v>
-      </c>
-      <c r="B222" t="s">
-        <v>27</v>
-      </c>
-      <c r="C222">
-        <v>5059</v>
-      </c>
-      <c r="D222" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>5057</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223">
-        <v>5057</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>5058</v>
-      </c>
-      <c r="B224" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224">
-        <v>5058</v>
-      </c>
-      <c r="D224" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>5058</v>
-      </c>
-      <c r="B225" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225">
-        <v>5058</v>
-      </c>
-      <c r="D225" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>5020</v>
-      </c>
-      <c r="B226" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226">
-        <v>5020</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>5021</v>
-      </c>
-      <c r="B227" t="s">
-        <v>37</v>
-      </c>
-      <c r="C227">
-        <v>5021</v>
-      </c>
-      <c r="D227" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>5022</v>
-      </c>
-      <c r="B228" t="s">
-        <v>38</v>
-      </c>
-      <c r="C228">
-        <v>5022</v>
-      </c>
-      <c r="D228" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>5059</v>
-      </c>
-      <c r="B229" t="s">
-        <v>27</v>
-      </c>
-      <c r="C229">
-        <v>5059</v>
-      </c>
-      <c r="D229" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>5059</v>
-      </c>
-      <c r="B230" t="s">
-        <v>27</v>
-      </c>
-      <c r="C230">
-        <v>5059</v>
-      </c>
-      <c r="D230" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>5025</v>
-      </c>
-      <c r="B231" t="s">
-        <v>41</v>
-      </c>
-      <c r="C231">
-        <v>5025</v>
-      </c>
-      <c r="D231" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>5026</v>
-      </c>
-      <c r="B232" t="s">
-        <v>40</v>
-      </c>
-      <c r="C232">
-        <v>5026</v>
-      </c>
-      <c r="D232" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>5027</v>
-      </c>
-      <c r="B233" t="s">
-        <v>39</v>
-      </c>
-      <c r="C233">
-        <v>5027</v>
-      </c>
-      <c r="D233" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>5028</v>
-      </c>
-      <c r="B234" t="s">
-        <v>42</v>
-      </c>
-      <c r="C234">
-        <v>5028</v>
-      </c>
-      <c r="D234" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>5029</v>
-      </c>
-      <c r="B235" t="s">
-        <v>28</v>
-      </c>
-      <c r="C235">
-        <v>5029</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>5001</v>
-      </c>
-      <c r="B236" t="s">
-        <v>44</v>
-      </c>
-      <c r="C236">
-        <v>5001</v>
-      </c>
-      <c r="D236" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>5031</v>
-      </c>
-      <c r="B237" t="s">
-        <v>46</v>
-      </c>
-      <c r="C237">
-        <v>5031</v>
-      </c>
-      <c r="D237" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>5032</v>
-      </c>
-      <c r="B238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C238">
-        <v>5032</v>
-      </c>
-      <c r="D238" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>5033</v>
-      </c>
-      <c r="B239" t="s">
-        <v>50</v>
-      </c>
-      <c r="C239">
-        <v>5033</v>
-      </c>
-      <c r="D239" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>5034</v>
-      </c>
-      <c r="B240" t="s">
-        <v>49</v>
-      </c>
-      <c r="C240">
-        <v>5034</v>
-      </c>
-      <c r="D240" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>5035</v>
-      </c>
-      <c r="B241" t="s">
-        <v>45</v>
-      </c>
-      <c r="C241">
-        <v>5035</v>
-      </c>
-      <c r="D241" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>5036</v>
-      </c>
-      <c r="B242" t="s">
-        <v>11</v>
-      </c>
-      <c r="C242">
-        <v>5036</v>
-      </c>
-      <c r="D242" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>5037</v>
-      </c>
-      <c r="B243" t="s">
-        <v>6</v>
-      </c>
-      <c r="C243">
-        <v>5037</v>
-      </c>
-      <c r="D243" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>5038</v>
-      </c>
-      <c r="B244" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244">
-        <v>5038</v>
-      </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>5006</v>
-      </c>
-      <c r="B245" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245">
-        <v>5006</v>
-      </c>
-      <c r="D245" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>5007</v>
-      </c>
-      <c r="B246" t="s">
-        <v>13</v>
-      </c>
-      <c r="C246">
-        <v>5007</v>
-      </c>
-      <c r="D246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>5041</v>
-      </c>
-      <c r="B247" t="s">
-        <v>9</v>
-      </c>
-      <c r="C247">
-        <v>5041</v>
-      </c>
-      <c r="D247" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>5042</v>
-      </c>
-      <c r="B248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C248">
-        <v>5042</v>
-      </c>
-      <c r="D248" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>5043</v>
-      </c>
-      <c r="B249" t="s">
-        <v>16</v>
-      </c>
-      <c r="C249">
-        <v>5043</v>
-      </c>
-      <c r="D249" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>5044</v>
-      </c>
-      <c r="B250" t="s">
-        <v>17</v>
-      </c>
-      <c r="C250">
-        <v>5044</v>
-      </c>
-      <c r="D250" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>5045</v>
-      </c>
-      <c r="B251" t="s">
-        <v>18</v>
-      </c>
-      <c r="C251">
-        <v>5045</v>
-      </c>
-      <c r="D251" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>5046</v>
-      </c>
-      <c r="B252" t="s">
-        <v>19</v>
-      </c>
-      <c r="C252">
-        <v>5046</v>
-      </c>
-      <c r="D252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>5047</v>
-      </c>
-      <c r="B253" t="s">
-        <v>20</v>
-      </c>
-      <c r="C253">
-        <v>5047</v>
-      </c>
-      <c r="D253" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>5007</v>
-      </c>
-      <c r="B254" t="s">
-        <v>13</v>
-      </c>
-      <c r="C254">
-        <v>5007</v>
-      </c>
-      <c r="D254" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>5049</v>
-      </c>
-      <c r="B255" t="s">
-        <v>22</v>
-      </c>
-      <c r="C255">
-        <v>5049</v>
-      </c>
-      <c r="D255" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>5060</v>
-      </c>
-      <c r="B256" t="s">
-        <v>24</v>
-      </c>
-      <c r="C256">
-        <v>5060</v>
-      </c>
-      <c r="D256" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>5060</v>
-      </c>
-      <c r="B257" t="s">
-        <v>24</v>
-      </c>
-      <c r="C257">
-        <v>5060</v>
-      </c>
-      <c r="D257" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>5052</v>
-      </c>
-      <c r="B258" t="s">
-        <v>25</v>
-      </c>
-      <c r="C258">
-        <v>5052</v>
-      </c>
-      <c r="D258" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>5053</v>
-      </c>
-      <c r="B259" t="s">
-        <v>10</v>
-      </c>
-      <c r="C259">
-        <v>5053</v>
-      </c>
-      <c r="D259" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>5054</v>
-      </c>
-      <c r="B260" t="s">
-        <v>2</v>
-      </c>
-      <c r="C260">
-        <v>5054</v>
-      </c>
-      <c r="D260" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>5061</v>
-      </c>
-      <c r="B261" t="s">
-        <v>35</v>
-      </c>
-      <c r="C261">
-        <v>5061</v>
-      </c>
-      <c r="D261" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>5055</v>
-      </c>
-      <c r="B262" t="s">
-        <v>53</v>
-      </c>
-      <c r="C262">
-        <v>5055</v>
-      </c>
-      <c r="D262" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>5054</v>
-      </c>
-      <c r="B263" t="s">
-        <v>2</v>
-      </c>
-      <c r="C263">
-        <v>5054</v>
-      </c>
-      <c r="D263" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>5053</v>
-      </c>
-      <c r="B264" t="s">
-        <v>10</v>
-      </c>
-      <c r="C264">
-        <v>5053</v>
-      </c>
-      <c r="D264" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>50</v>
-      </c>
-      <c r="B265" t="s">
-        <v>58</v>
-      </c>
-      <c r="C265">
-        <v>50</v>
-      </c>
-      <c r="D265" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>50</v>
-      </c>
-      <c r="B266" t="s">
-        <v>58</v>
-      </c>
-      <c r="C266">
-        <v>50</v>
-      </c>
-      <c r="D266" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D266" xr:uid="{DF907126-1A91-4D2A-946D-707599EBF84D}"/>
+  <autoFilter ref="A1:D112" xr:uid="{DF907126-1A91-4D2A-946D-707599EBF84D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13949,15 +11793,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -13966,6 +11801,15 @@
     <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13988,14 +11832,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14004,4 +11840,12 @@
     <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="532" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2DE0D4E-D9B7-42E1-A68C-EAEAF7964A83}"/>
+  <xr:revisionPtr revIDLastSave="832" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66465BFE-CBD3-4741-B97B-47603EC87935}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24750" yWindow="2775" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Regioner" sheetId="2" r:id="rId2"/>
     <sheet name="GNkommuner" sheetId="3" r:id="rId3"/>
-    <sheet name="Komm08-19_20" sheetId="5" r:id="rId4"/>
-    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId5"/>
-    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId6"/>
-    <sheet name="Komm08-18_19" sheetId="8" r:id="rId7"/>
-    <sheet name="Rekkefolge" sheetId="6" r:id="rId8"/>
+    <sheet name="kommuner for pendler" sheetId="9" r:id="rId4"/>
+    <sheet name="Komm08-19_20" sheetId="5" r:id="rId5"/>
+    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId6"/>
+    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId7"/>
+    <sheet name="Komm08-18_19" sheetId="8" r:id="rId8"/>
+    <sheet name="Rekkefolge" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="119">
   <si>
     <t>Fosen</t>
   </si>
@@ -318,6 +319,84 @@
   </si>
   <si>
     <t>Rang</t>
+  </si>
+  <si>
+    <t>Mosvik (-2011)</t>
+  </si>
+  <si>
+    <t>Inderøy (-2011)</t>
+  </si>
+  <si>
+    <t>Sør-Trøndelag (-2018)</t>
+  </si>
+  <si>
+    <t>Nord-Trøndelag (-2018)</t>
+  </si>
+  <si>
+    <t>Steinkjer (-2020)</t>
+  </si>
+  <si>
+    <t>Leksvik (-2018)</t>
+  </si>
+  <si>
+    <t>Rissa (-2018)</t>
+  </si>
+  <si>
+    <t>Halsa (-2020)</t>
+  </si>
+  <si>
+    <t>Nærøy (-2020)</t>
+  </si>
+  <si>
+    <t>Vikna (-2020)</t>
+  </si>
+  <si>
+    <t>Fosnes (-2020)</t>
+  </si>
+  <si>
+    <t>Namdalseid (-2020)</t>
+  </si>
+  <si>
+    <t>Verran (-2020)</t>
+  </si>
+  <si>
+    <t>Klæbu (-2020)</t>
+  </si>
+  <si>
+    <t>Orkdal (-2020)</t>
+  </si>
+  <si>
+    <t>Meldal (-2020)</t>
+  </si>
+  <si>
+    <t>Åfjord (-2020)</t>
+  </si>
+  <si>
+    <t>Roan (-2020)</t>
+  </si>
+  <si>
+    <t>Bjugn (-2020)</t>
+  </si>
+  <si>
+    <t>Agdenes (-2020)</t>
+  </si>
+  <si>
+    <t>Ørland (-2020)</t>
+  </si>
+  <si>
+    <t>Hitra (-2020)</t>
+  </si>
+  <si>
+    <t>Hemne (-2020)</t>
+  </si>
+  <si>
+    <t>Snillfjord (-2020)</t>
+  </si>
+  <si>
+    <t>Trondheim (-2020)</t>
+  </si>
+  <si>
+    <t>Namsos (-2020)</t>
   </si>
 </sst>
 </file>
@@ -3455,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE73AB4A-2BD5-452B-A4AF-7E492ACD2A7F}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,6 +5286,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
+  <dimension ref="A1:C111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="27" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1571</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1612</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1613</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1617</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1620</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1621</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1622</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1624</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1627</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1630</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1632</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1633</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1634</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1636</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1638</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1640</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1644</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1648</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1653</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1657</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1662</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1663</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1664</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1665</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1702</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1703</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1711</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1714</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1717</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1718</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1719</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1721</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1723</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1724</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1725</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1729</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1736</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1738</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1739</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1740</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1742</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1743</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1744</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1748</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1749</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1750</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1751</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1755</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1756</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5005</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5007</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5011</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5013</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5014</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5015</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5016</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5018</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5019</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5021</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5022</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5023</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5024</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5025</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5026</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5027</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5028</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5029</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5030</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5031</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5032</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5033</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5034</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5035</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5036</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5037</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5038</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5039</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5040</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5041</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5042</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5043</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5044</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5045</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5046</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5047</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5048</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5049</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5050</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5051</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5052</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5053</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5054</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5055</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5056</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5057</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5058</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5059</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5060</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5061</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C116">
+    <sortCondition ref="A1:A116"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -5672,11 +7000,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -7263,7 +8591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A15811-E7B4-4263-ACB1-9C1B99CB7119}">
   <dimension ref="A1:C238"/>
   <sheetViews>
@@ -9899,7 +11227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDC53F-31A0-42A3-B19C-2B5F3741C9F8}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -11447,7 +12775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -11586,6 +12914,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11792,27 +13140,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11829,23 +13176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="832" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66465BFE-CBD3-4741-B97B-47603EC87935}"/>
+  <xr:revisionPtr revIDLastSave="873" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA908B32-437D-4558-9C7E-C55F434C591A}"/>
   <bookViews>
-    <workbookView xWindow="-24750" yWindow="2775" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="120">
   <si>
     <t>Fosen</t>
   </si>
@@ -327,76 +327,79 @@
     <t>Inderøy (-2011)</t>
   </si>
   <si>
-    <t>Sør-Trøndelag (-2018)</t>
-  </si>
-  <si>
-    <t>Nord-Trøndelag (-2018)</t>
-  </si>
-  <si>
-    <t>Steinkjer (-2020)</t>
-  </si>
-  <si>
-    <t>Leksvik (-2018)</t>
-  </si>
-  <si>
-    <t>Rissa (-2018)</t>
-  </si>
-  <si>
-    <t>Halsa (-2020)</t>
-  </si>
-  <si>
-    <t>Nærøy (-2020)</t>
-  </si>
-  <si>
-    <t>Vikna (-2020)</t>
-  </si>
-  <si>
-    <t>Fosnes (-2020)</t>
-  </si>
-  <si>
-    <t>Namdalseid (-2020)</t>
-  </si>
-  <si>
-    <t>Verran (-2020)</t>
-  </si>
-  <si>
     <t>Klæbu (-2020)</t>
   </si>
   <si>
-    <t>Orkdal (-2020)</t>
+    <t>Sør-Trøndelag (-2017)</t>
   </si>
   <si>
-    <t>Meldal (-2020)</t>
+    <t>Nord-Trøndelag (-2017)</t>
   </si>
   <si>
-    <t>Åfjord (-2020)</t>
+    <t>Halsa (-2019)</t>
   </si>
   <si>
-    <t>Roan (-2020)</t>
+    <t>Trondheim (-2019)</t>
   </si>
   <si>
-    <t>Bjugn (-2020)</t>
+    <t>Hemne (-2019)</t>
   </si>
   <si>
-    <t>Agdenes (-2020)</t>
+    <t>Snillfjord (-2019)</t>
   </si>
   <si>
-    <t>Ørland (-2020)</t>
+    <t>Hitra (-2019)</t>
   </si>
   <si>
-    <t>Hitra (-2020)</t>
+    <t>Ørland (-2019)</t>
   </si>
   <si>
-    <t>Hemne (-2020)</t>
+    <t>Agdenes (-2019)</t>
   </si>
   <si>
-    <t>Snillfjord (-2020)</t>
+    <t>Bjugn (-2019)</t>
   </si>
   <si>
-    <t>Trondheim (-2020)</t>
+    <t>Åfjord (-2019)</t>
   </si>
   <si>
-    <t>Namsos (-2020)</t>
+    <t>Roan (-2019)</t>
+  </si>
+  <si>
+    <t>Meldal (-2019)</t>
+  </si>
+  <si>
+    <t>Orkdal (-2019)</t>
+  </si>
+  <si>
+    <t>Klæbu (-2019)</t>
+  </si>
+  <si>
+    <t>Steinkjer (-2019)</t>
+  </si>
+  <si>
+    <t>Namsos (-2019)</t>
+  </si>
+  <si>
+    <t>Verran (-2019)</t>
+  </si>
+  <si>
+    <t>Namdalseid (-2019)</t>
+  </si>
+  <si>
+    <t>Fosnes (-2019)</t>
+  </si>
+  <si>
+    <t>Vikna (-2019)</t>
+  </si>
+  <si>
+    <t>Nærøy (-2019)</t>
+  </si>
+  <si>
+    <t>Rissa (-2017)</t>
+  </si>
+  <si>
+    <t>Leksvik (-2017)</t>
   </si>
 </sst>
 </file>
@@ -5289,8 +5292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,7 +5315,7 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5323,7 +5326,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5356,7 +5359,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5367,7 +5370,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,7 +5381,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5389,7 +5392,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5400,7 +5403,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5422,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5433,7 +5436,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5444,7 +5447,7 @@
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5455,7 +5458,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5466,7 +5469,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5477,7 +5480,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5532,7 +5535,7 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5598,7 +5601,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5642,7 +5645,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5653,7 +5656,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5697,7 +5700,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5741,7 +5744,7 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5752,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5851,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5873,7 +5876,7 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5884,7 +5887,7 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5928,7 +5931,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5939,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5972,7 +5975,7 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5983,7 +5986,7 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5994,7 +5997,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6016,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6027,7 +6030,7 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6038,7 +6041,7 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6049,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6060,7 +6063,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6115,7 +6118,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6181,7 +6184,7 @@
         <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6280,7 +6283,7 @@
         <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6291,7 +6294,7 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6379,7 +6382,7 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6401,7 +6404,7 @@
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6412,7 +6415,7 @@
         <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -12914,26 +12917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13140,10 +13123,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13160,20 +13174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="873" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA908B32-437D-4558-9C7E-C55F434C591A}"/>
+  <xr:revisionPtr revIDLastSave="874" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33323169-FA13-4F04-B46E-9D262306BB1C}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="119">
   <si>
     <t>Fosen</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>Inderøy (-2011)</t>
-  </si>
-  <si>
-    <t>Klæbu (-2020)</t>
   </si>
   <si>
     <t>Sør-Trøndelag (-2017)</t>
@@ -5292,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,7 +5312,7 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5326,7 +5323,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5359,7 +5356,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5370,7 +5367,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5381,7 +5378,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5392,7 +5389,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,7 +5400,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5425,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5436,7 +5433,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5447,7 +5444,7 @@
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5458,7 +5455,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5480,7 +5477,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5524,7 +5521,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5535,7 +5532,7 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,7 +5598,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,7 +5642,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,7 +5697,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5744,7 +5741,7 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5755,7 +5752,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,7 +5851,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,7 +5873,7 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,7 +5884,7 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5931,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5939,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,7 +5972,7 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,7 +5983,7 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,7 +5994,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,7 +6027,7 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,7 +6038,7 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,7 +6049,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,7 +6060,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,7 +6115,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,7 +6181,7 @@
         <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6283,7 +6280,7 @@
         <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6294,7 +6291,7 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6382,7 +6379,7 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6404,7 +6401,7 @@
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6415,7 +6412,7 @@
         <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -12917,6 +12914,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13123,27 +13140,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13160,23 +13176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="874" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33323169-FA13-4F04-B46E-9D262306BB1C}"/>
+  <xr:revisionPtr revIDLastSave="878" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B14709E-DA4B-4EE6-90D1-4CEE72364024}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="120">
   <si>
     <t>Fosen</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>Leksvik (-2017)</t>
+  </si>
+  <si>
+    <t>Hele landet</t>
   </si>
 </sst>
 </file>
@@ -5287,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,6 +6526,17 @@
       </c>
       <c r="C111" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -12914,26 +12928,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13140,10 +13134,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13160,20 +13185,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="878" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B14709E-DA4B-4EE6-90D1-4CEE72364024}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A11E2C7-6227-46D7-8999-CB3104EE7DD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Regioner" sheetId="2" r:id="rId2"/>
-    <sheet name="GNkommuner" sheetId="3" r:id="rId3"/>
-    <sheet name="kommuner for pendler" sheetId="9" r:id="rId4"/>
-    <sheet name="Komm08-19_20" sheetId="5" r:id="rId5"/>
-    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId6"/>
-    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId7"/>
-    <sheet name="Komm08-18_19" sheetId="8" r:id="rId8"/>
-    <sheet name="Rekkefolge" sheetId="6" r:id="rId9"/>
+    <sheet name="Regioner før11aug22" sheetId="10" r:id="rId3"/>
+    <sheet name="GNkommuner" sheetId="3" r:id="rId4"/>
+    <sheet name="kommuner for pendler" sheetId="9" r:id="rId5"/>
+    <sheet name="Komm08-19_20" sheetId="5" r:id="rId6"/>
+    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId7"/>
+    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId8"/>
+    <sheet name="Komm08-18_19" sheetId="8" r:id="rId9"/>
+    <sheet name="Rekkefolge" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="120">
   <si>
     <t>Fosen</t>
   </si>
@@ -1293,12 +1294,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED8356-1544-409B-8D21-6D6D09A19FDC}">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1491,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1363,7 +1502,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1374,7 +1513,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1385,7 +1524,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1396,7 +1535,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1407,13 +1546,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1432,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1443,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1454,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1465,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1476,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1487,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1498,7 +1637,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1509,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1520,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1528,13 +1667,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1542,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1553,7 +1692,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -1564,7 +1703,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1575,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -1586,7 +1725,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -1594,13 +1733,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,7 +1747,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -1619,7 +1758,7 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -1630,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -1641,7 +1780,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -1652,7 +1791,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1660,13 +1799,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,7 +1813,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -1685,7 +1824,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -1696,7 +1835,7 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -1707,7 +1846,7 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1718,7 +1857,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1729,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1740,7 +1879,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -1748,13 +1887,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1901,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -1773,7 +1912,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -1784,7 +1923,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -1795,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -1806,7 +1945,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -1814,376 +1953,376 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
         <v>2</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2330,7 @@
         <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2202,7 +2341,7 @@
         <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -2213,7 +2352,7 @@
         <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2224,7 +2363,7 @@
         <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2232,134 +2371,134 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,7 +2506,7 @@
         <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -2378,7 +2517,7 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C98">
         <v>14</v>
@@ -2389,7 +2528,7 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C99">
         <v>14</v>
@@ -2400,7 +2539,7 @@
         <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>14</v>
@@ -2411,7 +2550,7 @@
         <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>14</v>
@@ -2422,7 +2561,7 @@
         <v>47</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>14</v>
@@ -2433,7 +2572,7 @@
         <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>14</v>
@@ -2444,7 +2583,7 @@
         <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C104">
         <v>14</v>
@@ -2455,7 +2594,7 @@
         <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C105">
         <v>14</v>
@@ -2466,7 +2605,7 @@
         <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>14</v>
@@ -2477,7 +2616,7 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>14</v>
@@ -2488,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C108">
         <v>14</v>
@@ -2499,7 +2638,7 @@
         <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>14</v>
@@ -2510,7 +2649,7 @@
         <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>14</v>
@@ -2521,7 +2660,7 @@
         <v>47</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -2532,7 +2671,7 @@
         <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C112">
         <v>14</v>
@@ -2543,7 +2682,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>14</v>
@@ -2554,7 +2693,7 @@
         <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>14</v>
@@ -2562,134 +2701,134 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C116">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C117">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C118">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C120">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C126">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,7 +2836,7 @@
         <v>58</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2708,7 +2847,7 @@
         <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2719,7 +2858,7 @@
         <v>58</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2730,7 +2869,7 @@
         <v>58</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2741,7 +2880,7 @@
         <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2752,7 +2891,7 @@
         <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2763,7 +2902,7 @@
         <v>58</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2774,7 +2913,7 @@
         <v>58</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2785,7 +2924,7 @@
         <v>58</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -2796,7 +2935,7 @@
         <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2807,7 +2946,7 @@
         <v>58</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2818,7 +2957,7 @@
         <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -2829,7 +2968,7 @@
         <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2840,7 +2979,7 @@
         <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -2851,7 +2990,7 @@
         <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2862,7 +3001,7 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2873,7 +3012,7 @@
         <v>58</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -2884,7 +3023,7 @@
         <v>58</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -2895,7 +3034,7 @@
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -2906,7 +3045,7 @@
         <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -2917,7 +3056,7 @@
         <v>58</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2928,7 +3067,7 @@
         <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2939,7 +3078,7 @@
         <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2950,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2961,7 +3100,7 @@
         <v>58</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2972,7 +3111,7 @@
         <v>58</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2980,145 +3119,145 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B154" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154">
         <v>15</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B165" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C165">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3126,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>15</v>
@@ -3137,7 +3276,7 @@
         <v>59</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>15</v>
@@ -3148,7 +3287,7 @@
         <v>59</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C168">
         <v>15</v>
@@ -3159,7 +3298,7 @@
         <v>59</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C169">
         <v>15</v>
@@ -3170,7 +3309,7 @@
         <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C170">
         <v>15</v>
@@ -3181,7 +3320,7 @@
         <v>59</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C171">
         <v>15</v>
@@ -3192,7 +3331,7 @@
         <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C172">
         <v>15</v>
@@ -3203,7 +3342,7 @@
         <v>59</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C173">
         <v>15</v>
@@ -3214,7 +3353,7 @@
         <v>59</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C174">
         <v>15</v>
@@ -3225,7 +3364,7 @@
         <v>59</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C175">
         <v>15</v>
@@ -3236,7 +3375,7 @@
         <v>59</v>
       </c>
       <c r="B176" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C176">
         <v>15</v>
@@ -3247,7 +3386,7 @@
         <v>59</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C177">
         <v>15</v>
@@ -3258,7 +3397,7 @@
         <v>59</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C178">
         <v>15</v>
@@ -3269,7 +3408,7 @@
         <v>59</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C179">
         <v>15</v>
@@ -3280,7 +3419,7 @@
         <v>59</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C180">
         <v>15</v>
@@ -3291,7 +3430,7 @@
         <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C181">
         <v>15</v>
@@ -3302,7 +3441,7 @@
         <v>59</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C182">
         <v>15</v>
@@ -3313,7 +3452,7 @@
         <v>59</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C183">
         <v>15</v>
@@ -3324,7 +3463,7 @@
         <v>59</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -3335,7 +3474,7 @@
         <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C185">
         <v>15</v>
@@ -3346,7 +3485,7 @@
         <v>59</v>
       </c>
       <c r="B186" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C186">
         <v>15</v>
@@ -3357,7 +3496,7 @@
         <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C187">
         <v>15</v>
@@ -3368,7 +3507,7 @@
         <v>59</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C188">
         <v>15</v>
@@ -3379,7 +3518,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C189">
         <v>15</v>
@@ -3390,141 +3529,9 @@
         <v>59</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C190">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>59</v>
-      </c>
-      <c r="B191" t="s">
-        <v>9</v>
-      </c>
-      <c r="C191">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>59</v>
-      </c>
-      <c r="B192" t="s">
-        <v>15</v>
-      </c>
-      <c r="C192">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>59</v>
-      </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>59</v>
-      </c>
-      <c r="B194" t="s">
-        <v>17</v>
-      </c>
-      <c r="C194">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>59</v>
-      </c>
-      <c r="B195" t="s">
-        <v>18</v>
-      </c>
-      <c r="C195">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>59</v>
-      </c>
-      <c r="B196" t="s">
-        <v>19</v>
-      </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>59</v>
-      </c>
-      <c r="B197" t="s">
-        <v>20</v>
-      </c>
-      <c r="C197">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>59</v>
-      </c>
-      <c r="B198" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>59</v>
-      </c>
-      <c r="B199" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>59</v>
-      </c>
-      <c r="B200" t="s">
-        <v>25</v>
-      </c>
-      <c r="C200">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>59</v>
-      </c>
-      <c r="B201" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>59</v>
-      </c>
-      <c r="B202" t="s">
-        <v>35</v>
-      </c>
-      <c r="C202">
         <v>15</v>
       </c>
     </row>
@@ -3534,6 +3541,2246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C4976-E658-40E6-973C-303B289F6D7A}">
+  <dimension ref="A1:C202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>58</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>58</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>58</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>58</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>59</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>59</v>
+      </c>
+      <c r="B176" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>59</v>
+      </c>
+      <c r="B177" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>59</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s">
+        <v>41</v>
+      </c>
+      <c r="C183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>51</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" t="s">
+        <v>50</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>59</v>
+      </c>
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>59</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE73AB4A-2BD5-452B-A4AF-7E492ACD2A7F}">
   <dimension ref="A1:P54"/>
   <sheetViews>
@@ -5288,11 +7535,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
@@ -6548,7 +8795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -7014,7 +9261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
   <dimension ref="A1:D112"/>
   <sheetViews>
@@ -8605,7 +10852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A15811-E7B4-4263-ACB1-9C1B99CB7119}">
   <dimension ref="A1:C238"/>
   <sheetViews>
@@ -11241,7 +13488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDC53F-31A0-42A3-B19C-2B5F3741C9F8}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -12789,145 +15036,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13134,27 +15263,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13171,23 +15299,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -15052,15 +15052,20 @@
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
     <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -15080,6 +15085,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15162,6 +15169,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -15283,20 +15312,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663024D6-5BC0-4967-BD63-4D63F780DD37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE0BBBB-625B-466F-B58B-94C7DCC63424}"/>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A11E2C7-6227-46D7-8999-CB3104EE7DD1}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A823B1-487D-4B3A-8AD0-667A84CDCC52}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="123">
   <si>
     <t>Fosen</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>Hele landet</t>
+  </si>
+  <si>
+    <t>Trøndelag sørvest</t>
+  </si>
+  <si>
+    <t>Aure</t>
+  </si>
+  <si>
+    <t>Surnadal</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED8356-1544-409B-8D21-6D6D09A19FDC}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,6 +3544,116 @@
         <v>15</v>
       </c>
     </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>120</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>120</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>120</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>120</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>120</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>120</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>120</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>120</v>
+      </c>
+      <c r="B199" t="s">
+        <v>121</v>
+      </c>
+      <c r="C199">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>120</v>
+      </c>
+      <c r="B200" t="s">
+        <v>122</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3544,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C4976-E658-40E6-973C-303B289F6D7A}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15037,30 +15156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15292,10 +15387,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE0BBBB-625B-466F-B58B-94C7DCC63424}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15307,10 +15438,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE0BBBB-625B-466F-B58B-94C7DCC63424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A823B1-487D-4B3A-8AD0-667A84CDCC52}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B710CCC9-99CD-4031-88E7-0255BAAFA8AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+      <selection activeCell="C194" sqref="C194:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>38</v>
       </c>
       <c r="C198">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,7 +3640,7 @@
         <v>121</v>
       </c>
       <c r="C199">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>122</v>
       </c>
       <c r="C200">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -15388,6 +15388,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -15400,15 +15409,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15432,6 +15432,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -15441,12 +15449,4 @@
     <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194:C200"/>
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15388,15 +15388,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -15409,6 +15400,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15432,14 +15432,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -15449,4 +15441,12 @@
     <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -15156,8 +15156,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -15182,6 +15182,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15271,6 +15272,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -15412,23 +15418,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE0BBBB-625B-466F-B58B-94C7DCC63424}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B710CCC9-99CD-4031-88E7-0255BAAFA8AD}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0F2F9B-CADC-4C9D-96E7-CFE1A942B627}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="124">
   <si>
     <t>Fosen</t>
   </si>
@@ -411,6 +411,9 @@
   <si>
     <t>Surnadal</t>
   </si>
+  <si>
+    <t>Namsos - Nåavmesjenjaelmie</t>
+  </si>
 </sst>
 </file>
 
@@ -636,6 +639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1445,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED8356-1544-409B-8D21-6D6D09A19FDC}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
@@ -8918,13 +8925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8956,7 +8964,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9196,7 +9204,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -9260,7 +9268,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -15156,6 +15164,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15393,32 +15425,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15434,9 +15446,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0F2F9B-CADC-4C9D-96E7-CFE1A942B627}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93665DEB-EBB6-48CA-B826-4401C39CBF4D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,10 +641,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8925,8 +8921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8961,7 +8957,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>123</v>
@@ -15164,30 +15160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15425,10 +15397,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15446,21 +15454,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -8921,8 +8921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15160,6 +15160,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15397,31 +15421,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15439,24 +15459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93665DEB-EBB6-48CA-B826-4401C39CBF4D}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5030C3-40E8-48EF-935A-DAB04336CA6B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="125">
   <si>
     <t>Fosen</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Namsos - Nåavmesjenjaelmie</t>
+  </si>
+  <si>
+    <t>Trondheim - Tråante</t>
   </si>
 </sst>
 </file>
@@ -8921,8 +8924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8941,10 +8944,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9120,7 +9123,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -15160,30 +15163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15421,10 +15400,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15442,21 +15457,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5030C3-40E8-48EF-935A-DAB04336CA6B}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D5F49B-6F82-458E-BBA0-55D4870854D6}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="126">
   <si>
     <t>Fosen</t>
   </si>
@@ -417,6 +417,9 @@
   <si>
     <t>Trondheim - Tråante</t>
   </si>
+  <si>
+    <t>Røros - Rosse</t>
+  </si>
 </sst>
 </file>
 
@@ -642,6 +645,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8924,8 +8931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9080,10 +9087,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15163,6 +15170,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15400,31 +15431,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15442,24 +15469,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -8931,8 +8931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15170,30 +15170,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15431,10 +15407,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15452,21 +15464,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FADFD91E-C585-4C45-8699-4CE7D908B444}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54498656-4503-4AAA-86C8-5396CC3CAEAF}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C64B3C9-AA5A-4F6E-A9BD-5683265F5BA5}"/>
   <bookViews>
-    <workbookView xWindow="8509" yWindow="3940" windowWidth="18851" windowHeight="10944" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="33722" windowHeight="18249" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Regioner" sheetId="2" r:id="rId2"/>
-    <sheet name="Regioner før11aug22" sheetId="10" r:id="rId3"/>
-    <sheet name="GNkommuner" sheetId="3" r:id="rId4"/>
-    <sheet name="kommuner for pendler" sheetId="9" r:id="rId5"/>
-    <sheet name="Komm08-19_20" sheetId="5" r:id="rId6"/>
-    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId7"/>
-    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId8"/>
-    <sheet name="Komm08-18_19" sheetId="8" r:id="rId9"/>
-    <sheet name="Rekkefolge" sheetId="6" r:id="rId10"/>
+    <sheet name="Regioner før11aug22" sheetId="10" r:id="rId2"/>
+    <sheet name="GNkommuner" sheetId="3" r:id="rId3"/>
+    <sheet name="kommuner for pendler" sheetId="9" r:id="rId4"/>
+    <sheet name="Komm08-19_20" sheetId="5" r:id="rId5"/>
+    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId6"/>
+    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId7"/>
+    <sheet name="Komm08-18_19" sheetId="8" r:id="rId8"/>
+    <sheet name="Rekkefolge" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="127">
   <si>
     <t>Fosen</t>
   </si>
@@ -401,15 +400,6 @@
   </si>
   <si>
     <t>Hele landet</t>
-  </si>
-  <si>
-    <t>Trøndelag sørvest</t>
-  </si>
-  <si>
-    <t>Aure</t>
-  </si>
-  <si>
-    <t>Surnadal</t>
   </si>
   <si>
     <t>Namsos - Nåavmesjenjaelmie</t>
@@ -1324,2367 +1314,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED8356-1544-409B-8D21-6D6D09A19FDC}">
-  <dimension ref="A1:C200"/>
-  <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G192" sqref="G192"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>47</v>
-      </c>
-      <c r="B96" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>47</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>47</v>
-      </c>
-      <c r="B106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>47</v>
-      </c>
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>47</v>
-      </c>
-      <c r="B111" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>47</v>
-      </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>58</v>
-      </c>
-      <c r="B115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116" t="s">
-        <v>45</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>58</v>
-      </c>
-      <c r="B117" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>58</v>
-      </c>
-      <c r="B118" t="s">
-        <v>39</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>58</v>
-      </c>
-      <c r="B119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>58</v>
-      </c>
-      <c r="B120" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>58</v>
-      </c>
-      <c r="B125" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>58</v>
-      </c>
-      <c r="B126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>58</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>58</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>58</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>58</v>
-      </c>
-      <c r="B131" t="s">
-        <v>37</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>58</v>
-      </c>
-      <c r="B135" t="s">
-        <v>51</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136" t="s">
-        <v>50</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>58</v>
-      </c>
-      <c r="B138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>58</v>
-      </c>
-      <c r="B139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>58</v>
-      </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>58</v>
-      </c>
-      <c r="B142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>58</v>
-      </c>
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>58</v>
-      </c>
-      <c r="B144" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B145" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>58</v>
-      </c>
-      <c r="B146" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>58</v>
-      </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>58</v>
-      </c>
-      <c r="B148" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>58</v>
-      </c>
-      <c r="B149" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>58</v>
-      </c>
-      <c r="B150" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>58</v>
-      </c>
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>58</v>
-      </c>
-      <c r="B152" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" t="s">
-        <v>44</v>
-      </c>
-      <c r="C153">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>59</v>
-      </c>
-      <c r="B154" t="s">
-        <v>45</v>
-      </c>
-      <c r="C154">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>59</v>
-      </c>
-      <c r="B155" t="s">
-        <v>42</v>
-      </c>
-      <c r="C155">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>59</v>
-      </c>
-      <c r="B156" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>59</v>
-      </c>
-      <c r="B157" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>59</v>
-      </c>
-      <c r="B158" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>59</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>59</v>
-      </c>
-      <c r="B160" t="s">
-        <v>46</v>
-      </c>
-      <c r="C160">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>59</v>
-      </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>59</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>59</v>
-      </c>
-      <c r="B163" t="s">
-        <v>53</v>
-      </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>59</v>
-      </c>
-      <c r="B164" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>59</v>
-      </c>
-      <c r="B165" t="s">
-        <v>34</v>
-      </c>
-      <c r="C165">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>59</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>59</v>
-      </c>
-      <c r="B168" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>59</v>
-      </c>
-      <c r="B169" t="s">
-        <v>37</v>
-      </c>
-      <c r="C169">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>59</v>
-      </c>
-      <c r="B170" t="s">
-        <v>38</v>
-      </c>
-      <c r="C170">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>59</v>
-      </c>
-      <c r="B171" t="s">
-        <v>41</v>
-      </c>
-      <c r="C171">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>59</v>
-      </c>
-      <c r="B172" t="s">
-        <v>40</v>
-      </c>
-      <c r="C172">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>59</v>
-      </c>
-      <c r="B173" t="s">
-        <v>51</v>
-      </c>
-      <c r="C173">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>59</v>
-      </c>
-      <c r="B174" t="s">
-        <v>50</v>
-      </c>
-      <c r="C174">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>59</v>
-      </c>
-      <c r="B175" t="s">
-        <v>49</v>
-      </c>
-      <c r="C175">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>59</v>
-      </c>
-      <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>59</v>
-      </c>
-      <c r="B177" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>59</v>
-      </c>
-      <c r="B178" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>59</v>
-      </c>
-      <c r="B179" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>59</v>
-      </c>
-      <c r="B180" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>59</v>
-      </c>
-      <c r="B181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>59</v>
-      </c>
-      <c r="B183" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>59</v>
-      </c>
-      <c r="B184" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>59</v>
-      </c>
-      <c r="B185" t="s">
-        <v>20</v>
-      </c>
-      <c r="C185">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>59</v>
-      </c>
-      <c r="B186" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>59</v>
-      </c>
-      <c r="B187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>59</v>
-      </c>
-      <c r="B188" t="s">
-        <v>25</v>
-      </c>
-      <c r="C188">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>59</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>59</v>
-      </c>
-      <c r="B190" t="s">
-        <v>35</v>
-      </c>
-      <c r="C190">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>120</v>
-      </c>
-      <c r="B191" t="s">
-        <v>27</v>
-      </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>120</v>
-      </c>
-      <c r="B192" t="s">
-        <v>28</v>
-      </c>
-      <c r="C192">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>120</v>
-      </c>
-      <c r="B193" t="s">
-        <v>53</v>
-      </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>120</v>
-      </c>
-      <c r="B194" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>120</v>
-      </c>
-      <c r="B195" t="s">
-        <v>34</v>
-      </c>
-      <c r="C195">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>120</v>
-      </c>
-      <c r="B196" t="s">
-        <v>35</v>
-      </c>
-      <c r="C196">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>120</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>120</v>
-      </c>
-      <c r="B198" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>120</v>
-      </c>
-      <c r="B199" t="s">
-        <v>121</v>
-      </c>
-      <c r="C199">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>120</v>
-      </c>
-      <c r="B200" t="s">
-        <v>122</v>
-      </c>
-      <c r="C200">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C4976-E658-40E6-973C-303B289F6D7A}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -5920,11 +3554,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE73AB4A-2BD5-452B-A4AF-7E492ACD2A7F}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -5970,10 +3604,10 @@
         <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -6011,7 +3645,7 @@
         <v>5001</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P2" t="s">
         <v>70</v>
@@ -6090,7 +3724,7 @@
         <v>5007</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -6660,7 +4294,7 @@
         <v>5025</v>
       </c>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -7116,7 +4750,7 @@
         <v>5037</v>
       </c>
       <c r="L31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -7534,7 +5168,7 @@
         <v>5007</v>
       </c>
       <c r="L42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -7999,7 +5633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
   <dimension ref="A1:C112"/>
   <sheetViews>
@@ -9259,7 +6893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -9283,10 +6917,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9299,10 +6933,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9419,10 +7053,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9462,7 +7096,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9542,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9606,7 +7240,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -9726,7 +7360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
   <dimension ref="A1:D112"/>
   <sheetViews>
@@ -11317,7 +8951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A15811-E7B4-4263-ACB1-9C1B99CB7119}">
   <dimension ref="A1:C238"/>
   <sheetViews>
@@ -13953,7 +11587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDC53F-31A0-42A3-B19C-2B5F3741C9F8}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -15501,31 +13135,145 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="17" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="3db192e2b8bfccba086ae9dac43014e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28af6c196815f27f167902d0c17178f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15769,10 +13517,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C14183-418A-45CF-97F7-829D1E3C5100}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15790,5 +13574,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C14183-418A-45CF-97F7-829D1E3C5100}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C64B3C9-AA5A-4F6E-A9BD-5683265F5BA5}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AACBD029-E686-4526-943F-C7630759FEFB}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="33722" windowHeight="18249" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="kommuner for pendler" sheetId="9" r:id="rId4"/>
     <sheet name="Komm08-19_20" sheetId="5" r:id="rId5"/>
     <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId6"/>
-    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId7"/>
+    <sheet name="Regioner" sheetId="4" r:id="rId7"/>
     <sheet name="Komm08-18_19" sheetId="8" r:id="rId8"/>
     <sheet name="Rekkefolge" sheetId="6" r:id="rId9"/>
   </sheets>
@@ -918,7 +918,7 @@
       <selection sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1318,11 +1318,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C4976-E658-40E6-973C-303B289F6D7A}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3562,7 +3562,7 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -3572,7 +3572,7 @@
     <col min="22" max="22" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1702</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1612</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1613</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1617</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1633</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1634</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1635</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1636</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1638</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1648</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1653</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1657</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1663</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1664</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1665</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1717</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1719</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1721</v>
       </c>
@@ -5641,7 +5641,7 @@
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
@@ -5696,7 +5696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1571</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1601</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1612</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1613</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1617</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1622</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1624</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1627</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1632</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1633</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1634</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1635</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1636</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1638</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1648</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1653</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1657</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1663</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1664</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1665</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1702</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1703</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1717</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1718</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1719</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1721</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1723</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1724</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1725</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1738</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1740</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1742</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1744</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1748</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1749</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1750</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1755</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5001</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5004</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5005</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5006</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5007</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5011</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5012</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5013</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5016</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5017</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5019</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5020</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5021</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5022</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5023</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5024</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5027</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5028</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5029</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5031</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5032</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5033</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5036</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5037</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5038</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5039</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5040</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5042</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5044</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5045</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5047</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5048</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>5049</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5050</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>5052</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5054</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5055</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5056</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5059</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5061</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
@@ -6901,7 +6901,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" customWidth="1"/>
@@ -7368,7 +7368,7 @@
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -8955,11 +8955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A15811-E7B4-4263-ACB1-9C1B99CB7119}">
   <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B191" sqref="B180:B191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11595,7 +11595,7 @@
       <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -11603,7 +11603,7 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1601</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1702</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1703</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1612</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1613</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1617</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1627</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1632</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1633</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1634</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1635</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1636</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1638</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1648</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1653</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1657</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1663</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1664</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1665</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1717</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1719</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1721</v>
       </c>
@@ -13143,7 +13143,7 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13518,6 +13518,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -13530,15 +13539,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13562,6 +13562,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13571,12 +13579,4 @@
     <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{E25DA0AF-1A28-45DD-A249-9797C0925237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AACBD029-E686-4526-943F-C7630759FEFB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F1BDD4-9E9D-4357-A324-77B777959A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Regioner før11aug22" sheetId="10" r:id="rId2"/>
-    <sheet name="GNkommuner" sheetId="3" r:id="rId3"/>
-    <sheet name="kommuner for pendler" sheetId="9" r:id="rId4"/>
-    <sheet name="Komm08-19_20" sheetId="5" r:id="rId5"/>
-    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId6"/>
-    <sheet name="Regioner" sheetId="4" r:id="rId7"/>
-    <sheet name="Komm08-18_19" sheetId="8" r:id="rId8"/>
-    <sheet name="Rekkefolge" sheetId="6" r:id="rId9"/>
+    <sheet name="Regioner" sheetId="2" r:id="rId2"/>
+    <sheet name="Regioner før11aug22" sheetId="10" r:id="rId3"/>
+    <sheet name="GNkommuner" sheetId="3" r:id="rId4"/>
+    <sheet name="kommuner for pendler" sheetId="9" r:id="rId5"/>
+    <sheet name="Komm08-19_20" sheetId="5" r:id="rId6"/>
+    <sheet name="Komm08-19_20 med nummere" sheetId="7" r:id="rId7"/>
+    <sheet name=" RegionerNy_Gml" sheetId="4" r:id="rId8"/>
+    <sheet name="Komm08-18_19" sheetId="8" r:id="rId9"/>
+    <sheet name="Rekkefolge" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Komm08-19_20 med nummere'!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="130">
   <si>
     <t>Fosen</t>
   </si>
@@ -400,6 +401,15 @@
   </si>
   <si>
     <t>Hele landet</t>
+  </si>
+  <si>
+    <t>Trøndelag sørvest</t>
+  </si>
+  <si>
+    <t>Aure</t>
+  </si>
+  <si>
+    <t>Surnadal</t>
   </si>
   <si>
     <t>Namsos - Nåavmesjenjaelmie</t>
@@ -1314,11 +1324,2367 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED8356-1544-409B-8D21-6D6D09A19FDC}">
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>58</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>58</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>58</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>59</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>59</v>
+      </c>
+      <c r="B165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>59</v>
+      </c>
+      <c r="B169" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>59</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>59</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>59</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>120</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>120</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>120</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>120</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>120</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>120</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>120</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>120</v>
+      </c>
+      <c r="B199" t="s">
+        <v>121</v>
+      </c>
+      <c r="C199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>120</v>
+      </c>
+      <c r="B200" t="s">
+        <v>122</v>
+      </c>
+      <c r="C200">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C4976-E658-40E6-973C-303B289F6D7A}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -3554,7 +5920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE73AB4A-2BD5-452B-A4AF-7E492ACD2A7F}">
   <dimension ref="A1:P54"/>
   <sheetViews>
@@ -3604,10 +5970,10 @@
         <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3645,7 +6011,7 @@
         <v>5001</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P2" t="s">
         <v>70</v>
@@ -3724,7 +6090,7 @@
         <v>5007</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
@@ -4294,7 +6660,7 @@
         <v>5025</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -4750,7 +7116,7 @@
         <v>5037</v>
       </c>
       <c r="L31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.3">
@@ -4791,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -4829,7 +7195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1725</v>
       </c>
@@ -4905,7 +7271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1738</v>
       </c>
@@ -5168,7 +7534,7 @@
         <v>5007</v>
       </c>
       <c r="L42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -5633,7 +7999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B278A08B-662D-4EBB-A973-9955443C9E42}">
   <dimension ref="A1:C112"/>
   <sheetViews>
@@ -6893,7 +9259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF76CCC-5835-4F9E-B2CB-9D2B541138FD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -6917,10 +9283,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6933,10 +9299,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7053,10 +9419,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7096,7 +9462,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7176,7 +9542,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7240,7 +9606,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -7360,7 +9726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
   <dimension ref="A1:D112"/>
   <sheetViews>
@@ -8951,12 +11317,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A15811-E7B4-4263-ACB1-9C1B99CB7119}">
   <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B191" sqref="B180:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11587,7 +13953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDC53F-31A0-42A3-B19C-2B5F3741C9F8}">
   <dimension ref="A1:D109"/>
   <sheetViews>
@@ -12051,7 +14417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -12065,7 +14431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1725</v>
       </c>
@@ -12093,7 +14459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1738</v>
       </c>
@@ -13132,144 +15498,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFCE87E-0113-48A6-80D0-488A6EC82D66}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13518,15 +15746,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -13539,6 +15758,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13562,14 +15790,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13579,4 +15799,12 @@
     <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>